--- a/M2 Pin Mapping.xlsx
+++ b/M2 Pin Mapping.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="626">
   <si>
     <t>Feature</t>
   </si>
@@ -1063,9 +1063,6 @@
     <t>SPI0_CS1</t>
   </si>
   <si>
-    <t>J1850 Power Supply</t>
-  </si>
-  <si>
     <t>PS_BUCK  BUCK_DIS</t>
   </si>
   <si>
@@ -1901,6 +1898,18 @@
   </si>
   <si>
     <t>Eeprom Memory (I2C)</t>
+  </si>
+  <si>
+    <t>GPIO Power Supply Enable</t>
+  </si>
+  <si>
+    <t>User Button R/H side</t>
+  </si>
+  <si>
+    <t>User Button L/H side</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2361,6 +2370,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2719,8 +2731,8 @@
   <dimension ref="A1:AJ352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -2758,7 +2770,7 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="41">
@@ -2808,7 +2820,7 @@
       <c r="AJ2" s="22"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="41">
         <v>15</v>
       </c>
@@ -2856,7 +2868,7 @@
       <c r="AJ3" s="22"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="41">
         <v>16</v>
       </c>
@@ -2904,7 +2916,7 @@
       <c r="AJ4" s="22"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="41">
         <v>17</v>
       </c>
@@ -2952,7 +2964,7 @@
       <c r="AJ5" s="22"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="41">
         <v>18</v>
       </c>
@@ -3000,7 +3012,7 @@
       <c r="AJ6" s="22"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="41">
         <v>19</v>
       </c>
@@ -3048,7 +3060,7 @@
       <c r="AJ7" s="22"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="41">
         <v>20</v>
       </c>
@@ -3096,7 +3108,7 @@
       <c r="AJ8" s="22"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="41">
         <v>21</v>
       </c>
@@ -3182,7 +3194,7 @@
       <c r="AJ10" s="23"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="75" t="s">
         <v>321</v>
       </c>
       <c r="B11" s="38">
@@ -3197,7 +3209,9 @@
       <c r="E11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="36" t="s">
+        <v>623</v>
+      </c>
       <c r="G11" s="7">
         <v>138</v>
       </c>
@@ -3232,7 +3246,7 @@
       <c r="AJ11" s="22"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="38">
         <v>23</v>
       </c>
@@ -3245,7 +3259,9 @@
       <c r="E12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="36"/>
+      <c r="F12" s="69" t="s">
+        <v>624</v>
+      </c>
       <c r="G12" s="7">
         <v>121</v>
       </c>
@@ -3318,8 +3334,8 @@
       <c r="AJ13" s="23"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
-        <v>400</v>
+      <c r="A14" s="76" t="s">
+        <v>399</v>
       </c>
       <c r="B14" s="41">
         <v>36</v>
@@ -3370,7 +3386,7 @@
       <c r="AJ14" s="22"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="41">
         <v>37</v>
       </c>
@@ -3418,7 +3434,7 @@
       <c r="AJ15" s="22"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="41">
         <v>38</v>
       </c>
@@ -3466,7 +3482,7 @@
       <c r="AJ16" s="22"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="41">
         <v>39</v>
       </c>
@@ -3514,7 +3530,7 @@
       <c r="AJ17" s="22"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="41">
         <v>40</v>
       </c>
@@ -3562,7 +3578,7 @@
       <c r="AJ18" s="22"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="41">
         <v>41</v>
       </c>
@@ -3610,7 +3626,7 @@
       <c r="AJ19" s="22"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="41">
         <v>42</v>
       </c>
@@ -3696,8 +3712,8 @@
       <c r="AJ21" s="23"/>
     </row>
     <row r="22" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
-        <v>401</v>
+      <c r="A22" s="76" t="s">
+        <v>400</v>
       </c>
       <c r="B22" s="41">
         <f>B101</f>
@@ -3751,7 +3767,7 @@
       <c r="AJ22" s="23"/>
     </row>
     <row r="23" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="41">
         <f t="shared" ref="B23:E24" si="1">B99</f>
         <v>44</v>
@@ -3804,7 +3820,7 @@
       <c r="AJ23" s="23"/>
     </row>
     <row r="24" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="41">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -3857,7 +3873,7 @@
       <c r="AJ24" s="23"/>
     </row>
     <row r="25" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="41">
         <f>B98</f>
         <v>43</v>
@@ -3948,7 +3964,7 @@
       <c r="AJ26" s="23"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="83" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="38">
@@ -3958,13 +3974,13 @@
         <v>322</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E27" s="36" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G27" s="7">
         <v>60</v>
@@ -4000,7 +4016,7 @@
       <c r="AJ27" s="22"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="38">
         <v>25</v>
       </c>
@@ -4008,13 +4024,13 @@
         <v>323</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E28" s="36" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G28" s="7">
         <v>63</v>
@@ -4050,7 +4066,7 @@
       <c r="AJ28" s="22"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="38">
         <v>26</v>
       </c>
@@ -4058,13 +4074,13 @@
         <v>324</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E29" s="36" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G29" s="7">
         <v>65</v>
@@ -4100,7 +4116,7 @@
       <c r="AJ29" s="22"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="38">
         <v>27</v>
       </c>
@@ -4108,13 +4124,13 @@
         <v>325</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E30" s="36" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G30" s="7">
         <v>67</v>
@@ -4150,7 +4166,7 @@
       <c r="AJ30" s="22"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="38">
         <v>28</v>
       </c>
@@ -4158,13 +4174,13 @@
         <v>326</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E31" s="36" t="s">
         <v>49</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G31" s="7">
         <v>131</v>
@@ -4200,7 +4216,7 @@
       <c r="AJ31" s="22"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
+      <c r="A32" s="85"/>
       <c r="B32" s="38">
         <v>29</v>
       </c>
@@ -4208,13 +4224,13 @@
         <v>327</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E32" s="36" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G32" s="7">
         <v>101</v>
@@ -4250,7 +4266,7 @@
       <c r="AJ32" s="22"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="38">
         <v>30</v>
       </c>
@@ -4258,13 +4274,13 @@
         <v>328</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E33" s="36" t="s">
         <v>42</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G33" s="7">
         <v>59</v>
@@ -4300,7 +4316,7 @@
       <c r="AJ33" s="22"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="38">
         <v>31</v>
       </c>
@@ -4308,13 +4324,13 @@
         <v>329</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E34" s="36" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G34" s="7">
         <v>116</v>
@@ -4350,7 +4366,7 @@
       <c r="AJ34" s="22"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
+      <c r="A35" s="85"/>
       <c r="B35" s="38">
         <v>32</v>
       </c>
@@ -4358,13 +4374,13 @@
         <v>330</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E35" s="36" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G35" s="7">
         <v>64</v>
@@ -4400,7 +4416,7 @@
       <c r="AJ35" s="22"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="38">
         <v>33</v>
       </c>
@@ -4408,13 +4424,13 @@
         <v>331</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E36" s="36" t="s">
         <v>48</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G36" s="7">
         <v>66</v>
@@ -4450,7 +4466,7 @@
       <c r="AJ36" s="22"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="38">
         <v>34</v>
       </c>
@@ -4458,13 +4474,13 @@
         <v>332</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E37" s="36" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G37" s="7">
         <v>132</v>
@@ -4500,7 +4516,7 @@
       <c r="AJ37" s="22"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="38">
         <v>35</v>
       </c>
@@ -4508,13 +4524,13 @@
         <v>333</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E38" s="36" t="s">
         <v>52</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G38" s="7">
         <v>133</v>
@@ -4588,14 +4604,14 @@
       <c r="AJ39" s="23"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="76" t="s">
         <v>336</v>
       </c>
       <c r="B40" s="41">
         <v>86</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>54</v>
@@ -4638,12 +4654,12 @@
       <c r="AJ40" s="22"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="41">
         <v>87</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D41" s="40" t="s">
         <v>56</v>
@@ -4686,12 +4702,12 @@
       <c r="AJ41" s="22"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="76"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="41">
         <v>88</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D42" s="40" t="s">
         <v>58</v>
@@ -4734,12 +4750,12 @@
       <c r="AJ42" s="22"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="76"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="41">
         <v>89</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>60</v>
@@ -4782,12 +4798,12 @@
       <c r="AJ43" s="22"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="76"/>
+      <c r="A44" s="77"/>
       <c r="B44" s="41">
         <v>90</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D44" s="40" t="s">
         <v>62</v>
@@ -4830,12 +4846,12 @@
       <c r="AJ44" s="22"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="41">
         <v>91</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>64</v>
@@ -4916,14 +4932,14 @@
       <c r="AJ46" s="22"/>
     </row>
     <row r="47" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="74" t="s">
+      <c r="A47" s="83" t="s">
         <v>335</v>
       </c>
       <c r="B47" s="38">
         <v>75</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>66</v>
@@ -4931,7 +4947,9 @@
       <c r="E47" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="36"/>
+      <c r="F47" s="36" t="s">
+        <v>622</v>
+      </c>
       <c r="G47" s="7">
         <v>135</v>
       </c>
@@ -4966,12 +4984,12 @@
       <c r="AJ47" s="22"/>
     </row>
     <row r="48" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="74"/>
+      <c r="A48" s="85"/>
       <c r="B48" s="38">
         <v>93</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>68</v>
@@ -4980,7 +4998,7 @@
         <v>67</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G48" s="7">
         <v>88</v>
@@ -5016,12 +5034,12 @@
       <c r="AJ48" s="22"/>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A49" s="74"/>
+      <c r="A49" s="85"/>
       <c r="B49" s="38">
         <v>76</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>70</v>
@@ -5030,7 +5048,7 @@
         <v>69</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G49" s="7">
         <v>14</v>
@@ -5066,12 +5084,12 @@
       <c r="AJ49" s="22"/>
     </row>
     <row r="50" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="74"/>
+      <c r="A50" s="84"/>
       <c r="B50" s="38">
         <v>95</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>72</v>
@@ -5080,7 +5098,7 @@
         <v>71</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G50" s="7">
         <v>77</v>
@@ -5154,7 +5172,7 @@
       <c r="AJ51" s="23"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A52" s="75" t="s">
+      <c r="A52" s="76" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="41">
@@ -5204,7 +5222,7 @@
       <c r="AJ52" s="22"/>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A53" s="76"/>
+      <c r="A53" s="77"/>
       <c r="B53" s="41">
         <v>70</v>
       </c>
@@ -5252,12 +5270,12 @@
       <c r="AJ53" s="22"/>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A54" s="76"/>
+      <c r="A54" s="77"/>
       <c r="B54" s="41">
         <v>71</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D54" s="40" t="s">
         <v>79</v>
@@ -5300,7 +5318,7 @@
       <c r="AJ54" s="22"/>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A55" s="76"/>
+      <c r="A55" s="77"/>
       <c r="B55" s="41">
         <v>72</v>
       </c>
@@ -5348,7 +5366,7 @@
       <c r="AJ55" s="22"/>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A56" s="76"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="41">
         <v>73</v>
       </c>
@@ -5396,12 +5414,12 @@
       <c r="AJ56" s="22"/>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
+      <c r="A57" s="78"/>
       <c r="B57" s="41">
         <v>25</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D57" s="40" t="s">
         <v>85</v>
@@ -5482,14 +5500,14 @@
       <c r="AJ58" s="22"/>
     </row>
     <row r="59" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="82" t="s">
-        <v>343</v>
+      <c r="A59" s="83" t="s">
+        <v>625</v>
       </c>
       <c r="B59" s="38">
         <v>48</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D59" s="37" t="s">
         <v>98</v>
@@ -5532,12 +5550,12 @@
       <c r="AJ59" s="22"/>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A60" s="83"/>
+      <c r="A60" s="84"/>
       <c r="B60" s="38">
         <v>49</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D60" s="37" t="s">
         <v>100</v>
@@ -5582,14 +5600,14 @@
       <c r="AJ60" s="22"/>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A61" s="82" t="s">
+      <c r="A61" s="83" t="s">
         <v>86</v>
       </c>
       <c r="B61" s="38">
         <v>50</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D61" s="37" t="s">
         <v>88</v>
@@ -5632,7 +5650,7 @@
       <c r="AJ61" s="22"/>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
+      <c r="A62" s="85"/>
       <c r="B62" s="38">
         <v>51</v>
       </c>
@@ -5680,7 +5698,7 @@
       <c r="AJ62" s="22"/>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A63" s="84"/>
+      <c r="A63" s="85"/>
       <c r="B63" s="38">
         <v>52</v>
       </c>
@@ -5728,12 +5746,12 @@
       <c r="AJ63" s="22"/>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A64" s="84"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="38">
         <v>53</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D64" s="37" t="s">
         <v>94</v>
@@ -5776,12 +5794,12 @@
       <c r="AJ64" s="22"/>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A65" s="83"/>
+      <c r="A65" s="84"/>
       <c r="B65" s="38">
         <v>54</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D65" s="37" t="s">
         <v>96</v>
@@ -5862,7 +5880,7 @@
       <c r="AJ66" s="22"/>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A67" s="82" t="s">
+      <c r="A67" s="83" t="s">
         <v>102</v>
       </c>
       <c r="B67" s="38">
@@ -5914,7 +5932,7 @@
       <c r="AJ67" s="22"/>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A68" s="84"/>
+      <c r="A68" s="85"/>
       <c r="B68" s="38">
         <v>1</v>
       </c>
@@ -5964,7 +5982,7 @@
       <c r="AJ68" s="22"/>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A69" s="84"/>
+      <c r="A69" s="85"/>
       <c r="B69" s="38">
         <v>4</v>
       </c>
@@ -6012,7 +6030,7 @@
       <c r="AJ69" s="22"/>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A70" s="84"/>
+      <c r="A70" s="85"/>
       <c r="B70" s="38">
         <v>7</v>
       </c>
@@ -6060,7 +6078,7 @@
       <c r="AJ70" s="22"/>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A71" s="84"/>
+      <c r="A71" s="85"/>
       <c r="B71" s="38">
         <v>11</v>
       </c>
@@ -6108,7 +6126,7 @@
       <c r="AJ71" s="22"/>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A72" s="84"/>
+      <c r="A72" s="85"/>
       <c r="B72" s="38">
         <v>12</v>
       </c>
@@ -6156,7 +6174,7 @@
       <c r="AJ72" s="22"/>
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A73" s="84"/>
+      <c r="A73" s="85"/>
       <c r="B73" s="38">
         <v>8</v>
       </c>
@@ -6204,7 +6222,7 @@
       <c r="AJ73" s="22"/>
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A74" s="84"/>
+      <c r="A74" s="85"/>
       <c r="B74" s="38">
         <v>3</v>
       </c>
@@ -6252,7 +6270,7 @@
       <c r="AJ74" s="22"/>
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A75" s="84"/>
+      <c r="A75" s="85"/>
       <c r="B75" s="38">
         <v>5</v>
       </c>
@@ -6300,7 +6318,7 @@
       <c r="AJ75" s="22"/>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A76" s="84"/>
+      <c r="A76" s="85"/>
       <c r="B76" s="38">
         <v>6</v>
       </c>
@@ -6348,7 +6366,7 @@
       <c r="AJ76" s="22"/>
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A77" s="84"/>
+      <c r="A77" s="85"/>
       <c r="B77" s="38">
         <v>9</v>
       </c>
@@ -6396,7 +6414,7 @@
       <c r="AJ77" s="22"/>
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A78" s="84"/>
+      <c r="A78" s="85"/>
       <c r="B78" s="38">
         <v>2</v>
       </c>
@@ -6444,7 +6462,7 @@
       <c r="AJ78" s="22"/>
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A79" s="84"/>
+      <c r="A79" s="85"/>
       <c r="B79" s="38">
         <v>10</v>
       </c>
@@ -6492,7 +6510,7 @@
       <c r="AJ79" s="22"/>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A80" s="83"/>
+      <c r="A80" s="84"/>
       <c r="B80" s="38">
         <v>13</v>
       </c>
@@ -6578,7 +6596,7 @@
       <c r="AJ81" s="22"/>
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A82" s="78" t="s">
+      <c r="A82" s="79" t="s">
         <v>138</v>
       </c>
       <c r="B82" s="41">
@@ -6630,7 +6648,7 @@
       <c r="AJ82" s="22"/>
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A83" s="78"/>
+      <c r="A83" s="79"/>
       <c r="B83" s="41">
         <v>56</v>
       </c>
@@ -6678,7 +6696,7 @@
       <c r="AJ83" s="22"/>
     </row>
     <row r="84" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="78"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="41">
         <v>57</v>
       </c>
@@ -6726,7 +6744,7 @@
       <c r="AJ84" s="22"/>
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A85" s="78"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="41">
         <v>58</v>
       </c>
@@ -6776,7 +6794,7 @@
       <c r="AJ85" s="22"/>
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A86" s="78"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="41">
         <v>59</v>
       </c>
@@ -6824,7 +6842,7 @@
       <c r="AJ86" s="22"/>
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A87" s="78"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="41">
         <v>60</v>
       </c>
@@ -6910,7 +6928,7 @@
       <c r="AJ88" s="22"/>
     </row>
     <row r="89" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="82" t="s">
+      <c r="A89" s="83" t="s">
         <v>334</v>
       </c>
       <c r="B89" s="38">
@@ -6960,7 +6978,7 @@
       <c r="AJ89" s="22"/>
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A90" s="84"/>
+      <c r="A90" s="85"/>
       <c r="B90" s="38">
         <v>64</v>
       </c>
@@ -7008,7 +7026,7 @@
       <c r="AJ90" s="22"/>
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A91" s="84"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="38">
         <v>68</v>
       </c>
@@ -7056,7 +7074,7 @@
       <c r="AJ91" s="22"/>
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A92" s="84"/>
+      <c r="A92" s="85"/>
       <c r="B92" s="38">
         <v>66</v>
       </c>
@@ -7104,7 +7122,7 @@
       <c r="AJ92" s="22"/>
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A93" s="84"/>
+      <c r="A93" s="85"/>
       <c r="B93" s="38">
         <v>63</v>
       </c>
@@ -7152,7 +7170,7 @@
       <c r="AJ93" s="22"/>
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A94" s="84"/>
+      <c r="A94" s="85"/>
       <c r="B94" s="38">
         <v>67</v>
       </c>
@@ -7200,7 +7218,7 @@
       <c r="AJ94" s="22"/>
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A95" s="84"/>
+      <c r="A95" s="85"/>
       <c r="B95" s="38">
         <v>61</v>
       </c>
@@ -7248,7 +7266,7 @@
       <c r="AJ95" s="22"/>
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A96" s="83"/>
+      <c r="A96" s="84"/>
       <c r="B96" s="38">
         <v>62</v>
       </c>
@@ -7334,7 +7352,7 @@
       <c r="AJ97" s="22"/>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A98" s="75" t="s">
+      <c r="A98" s="76" t="s">
         <v>337</v>
       </c>
       <c r="B98" s="52">
@@ -7386,7 +7404,7 @@
       <c r="AJ98" s="22"/>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A99" s="76"/>
+      <c r="A99" s="77"/>
       <c r="B99" s="52">
         <v>44</v>
       </c>
@@ -7436,7 +7454,7 @@
       <c r="AJ99" s="22"/>
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A100" s="76"/>
+      <c r="A100" s="77"/>
       <c r="B100" s="52">
         <v>45</v>
       </c>
@@ -7486,7 +7504,7 @@
       <c r="AJ100" s="22"/>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A101" s="76"/>
+      <c r="A101" s="77"/>
       <c r="B101" s="55">
         <v>46</v>
       </c>
@@ -7536,7 +7554,7 @@
       <c r="AJ101" s="22"/>
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A102" s="77"/>
+      <c r="A102" s="78"/>
       <c r="B102" s="52">
         <v>47</v>
       </c>
@@ -7622,23 +7640,23 @@
       <c r="AJ103" s="22"/>
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A104" s="79" t="s">
+      <c r="A104" s="80" t="s">
         <v>178</v>
       </c>
       <c r="B104" s="59">
         <v>77</v>
       </c>
       <c r="C104" s="58" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D104" s="58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E104" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="F104" s="72" t="s">
-        <v>355</v>
+      <c r="F104" s="73" t="s">
+        <v>354</v>
       </c>
       <c r="G104" s="7">
         <v>17</v>
@@ -7674,12 +7692,12 @@
       <c r="AJ104" s="22"/>
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A105" s="80"/>
+      <c r="A105" s="81"/>
       <c r="B105" s="60">
         <v>78</v>
       </c>
       <c r="C105" s="61" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D105" s="61" t="s">
         <v>289</v>
@@ -7687,7 +7705,7 @@
       <c r="E105" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="F105" s="73"/>
+      <c r="F105" s="74"/>
       <c r="G105" s="7">
         <v>18</v>
       </c>
@@ -7722,20 +7740,20 @@
       <c r="AJ105" s="22"/>
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A106" s="80"/>
+      <c r="A106" s="81"/>
       <c r="B106" s="60">
         <v>79</v>
       </c>
       <c r="C106" s="61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D106" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E106" s="62" t="s">
-        <v>359</v>
-      </c>
-      <c r="F106" s="91" t="s">
+        <v>358</v>
+      </c>
+      <c r="F106" s="92" t="s">
         <v>242</v>
       </c>
       <c r="G106" s="7">
@@ -7772,7 +7790,7 @@
       <c r="AJ106" s="22"/>
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A107" s="80"/>
+      <c r="A107" s="81"/>
       <c r="B107" s="60">
         <v>80</v>
       </c>
@@ -7785,7 +7803,7 @@
       <c r="E107" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="F107" s="92"/>
+      <c r="F107" s="93"/>
       <c r="G107" s="7">
         <v>70</v>
       </c>
@@ -7820,12 +7838,12 @@
       <c r="AJ107" s="22"/>
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A108" s="81"/>
+      <c r="A108" s="82"/>
       <c r="B108" s="60">
         <v>83</v>
       </c>
       <c r="C108" s="61" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D108" s="61" t="s">
         <v>170</v>
@@ -7908,8 +7926,8 @@
       <c r="AJ109" s="22"/>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A110" s="86" t="s">
-        <v>365</v>
+      <c r="A110" s="87" t="s">
+        <v>364</v>
       </c>
       <c r="B110" s="55">
         <v>92</v>
@@ -7960,12 +7978,12 @@
       <c r="AJ110" s="22"/>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A111" s="87"/>
+      <c r="A111" s="88"/>
       <c r="B111" s="55">
         <v>94</v>
       </c>
       <c r="C111" s="54" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D111" s="54" t="s">
         <v>289</v>
@@ -8048,8 +8066,8 @@
       <c r="AJ112" s="22"/>
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A113" s="82" t="s">
-        <v>622</v>
+      <c r="A113" s="83" t="s">
+        <v>621</v>
       </c>
       <c r="B113" s="60">
         <v>81</v>
@@ -8063,7 +8081,7 @@
       <c r="E113" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="F113" s="91" t="s">
+      <c r="F113" s="92" t="s">
         <v>253</v>
       </c>
       <c r="G113" s="7">
@@ -8100,7 +8118,7 @@
       <c r="AJ113" s="22"/>
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A114" s="83"/>
+      <c r="A114" s="84"/>
       <c r="B114" s="60">
         <v>82</v>
       </c>
@@ -8113,7 +8131,7 @@
       <c r="E114" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="F114" s="92"/>
+      <c r="F114" s="93"/>
       <c r="G114" s="7">
         <v>87</v>
       </c>
@@ -8187,7 +8205,7 @@
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" s="56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B116" s="55">
         <v>84</v>
@@ -8239,22 +8257,22 @@
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" s="56" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B117" s="55">
         <v>85</v>
       </c>
       <c r="C117" s="54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D117" s="54" t="s">
         <v>169</v>
       </c>
       <c r="E117" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F117" s="53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G117" s="7">
         <v>55</v>
@@ -8542,7 +8560,7 @@
       <c r="AJ123" s="22"/>
     </row>
     <row r="124" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="88" t="s">
+      <c r="A124" s="89" t="s">
         <v>244</v>
       </c>
       <c r="B124" s="51"/>
@@ -8588,7 +8606,7 @@
       <c r="AJ124" s="22"/>
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A125" s="89"/>
+      <c r="A125" s="90"/>
       <c r="B125" s="51"/>
       <c r="C125" s="49"/>
       <c r="D125" s="49" t="s">
@@ -8632,7 +8650,7 @@
       <c r="AJ125" s="22"/>
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A126" s="89"/>
+      <c r="A126" s="90"/>
       <c r="B126" s="51"/>
       <c r="C126" s="49"/>
       <c r="D126" s="49" t="s">
@@ -8676,7 +8694,7 @@
       <c r="AJ126" s="22"/>
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A127" s="89"/>
+      <c r="A127" s="90"/>
       <c r="B127" s="51"/>
       <c r="C127" s="49"/>
       <c r="D127" s="49" t="s">
@@ -8720,7 +8738,7 @@
       <c r="AJ127" s="22"/>
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A128" s="89"/>
+      <c r="A128" s="90"/>
       <c r="B128" s="51"/>
       <c r="C128" s="49"/>
       <c r="D128" s="49" t="s">
@@ -8764,7 +8782,7 @@
       <c r="AJ128" s="22"/>
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A129" s="89"/>
+      <c r="A129" s="90"/>
       <c r="B129" s="51"/>
       <c r="C129" s="49"/>
       <c r="D129" s="49" t="s">
@@ -8808,7 +8826,7 @@
       <c r="AJ129" s="22"/>
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A130" s="89"/>
+      <c r="A130" s="90"/>
       <c r="B130" s="51"/>
       <c r="C130" s="49"/>
       <c r="D130" s="49" t="s">
@@ -8852,7 +8870,7 @@
       <c r="AJ130" s="22"/>
     </row>
     <row r="131" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A131" s="89"/>
+      <c r="A131" s="90"/>
       <c r="B131" s="51"/>
       <c r="C131" s="49"/>
       <c r="D131" s="49" t="s">
@@ -8896,7 +8914,7 @@
       <c r="AJ131" s="22"/>
     </row>
     <row r="132" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A132" s="89"/>
+      <c r="A132" s="90"/>
       <c r="B132" s="51"/>
       <c r="C132" s="49"/>
       <c r="D132" s="49" t="s">
@@ -8940,7 +8958,7 @@
       <c r="AJ132" s="22"/>
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A133" s="89"/>
+      <c r="A133" s="90"/>
       <c r="B133" s="51"/>
       <c r="C133" s="49"/>
       <c r="D133" s="49" t="s">
@@ -8984,7 +9002,7 @@
       <c r="AJ133" s="22"/>
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A134" s="89"/>
+      <c r="A134" s="90"/>
       <c r="B134" s="51"/>
       <c r="C134" s="49"/>
       <c r="D134" s="49" t="s">
@@ -9028,7 +9046,7 @@
       <c r="AJ134" s="22"/>
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A135" s="89"/>
+      <c r="A135" s="90"/>
       <c r="B135" s="51"/>
       <c r="C135" s="49"/>
       <c r="D135" s="49" t="s">
@@ -9072,7 +9090,7 @@
       <c r="AJ135" s="22"/>
     </row>
     <row r="136" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A136" s="89"/>
+      <c r="A136" s="90"/>
       <c r="B136" s="51"/>
       <c r="C136" s="49"/>
       <c r="D136" s="49" t="s">
@@ -9116,7 +9134,7 @@
       <c r="AJ136" s="22"/>
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A137" s="89"/>
+      <c r="A137" s="90"/>
       <c r="B137" s="51"/>
       <c r="C137" s="49"/>
       <c r="D137" s="49" t="s">
@@ -9160,7 +9178,7 @@
       <c r="AJ137" s="22"/>
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A138" s="89"/>
+      <c r="A138" s="90"/>
       <c r="B138" s="51"/>
       <c r="C138" s="49"/>
       <c r="D138" s="49" t="s">
@@ -9204,7 +9222,7 @@
       <c r="AJ138" s="22"/>
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A139" s="89"/>
+      <c r="A139" s="90"/>
       <c r="B139" s="51"/>
       <c r="C139" s="49"/>
       <c r="D139" s="49" t="s">
@@ -9250,7 +9268,7 @@
       <c r="AJ139" s="22"/>
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A140" s="89"/>
+      <c r="A140" s="90"/>
       <c r="B140" s="51"/>
       <c r="C140" s="49"/>
       <c r="D140" s="49" t="s">
@@ -9296,7 +9314,7 @@
       <c r="AJ140" s="22"/>
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A141" s="89"/>
+      <c r="A141" s="90"/>
       <c r="B141" s="51"/>
       <c r="C141" s="49"/>
       <c r="D141" s="49" t="s">
@@ -9342,7 +9360,7 @@
       <c r="AJ141" s="22"/>
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A142" s="89"/>
+      <c r="A142" s="90"/>
       <c r="B142" s="51"/>
       <c r="C142" s="49"/>
       <c r="D142" s="49" t="s">
@@ -9388,7 +9406,7 @@
       <c r="AJ142" s="22"/>
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A143" s="89"/>
+      <c r="A143" s="90"/>
       <c r="B143" s="51"/>
       <c r="C143" s="49"/>
       <c r="D143" s="49" t="s">
@@ -9434,7 +9452,7 @@
       <c r="AJ143" s="22"/>
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A144" s="89"/>
+      <c r="A144" s="90"/>
       <c r="B144" s="51"/>
       <c r="C144" s="49"/>
       <c r="D144" s="49" t="s">
@@ -9478,7 +9496,7 @@
       <c r="AJ144" s="22"/>
     </row>
     <row r="145" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A145" s="89"/>
+      <c r="A145" s="90"/>
       <c r="B145" s="51"/>
       <c r="C145" s="49"/>
       <c r="D145" s="49" t="s">
@@ -9522,7 +9540,7 @@
       <c r="AJ145" s="22"/>
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A146" s="89"/>
+      <c r="A146" s="90"/>
       <c r="B146" s="51"/>
       <c r="C146" s="49"/>
       <c r="D146" s="49" t="s">
@@ -9566,7 +9584,7 @@
       <c r="AJ146" s="22"/>
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A147" s="89"/>
+      <c r="A147" s="90"/>
       <c r="B147" s="51"/>
       <c r="C147" s="49"/>
       <c r="D147" s="49" t="s">
@@ -9610,7 +9628,7 @@
       <c r="AJ147" s="22"/>
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A148" s="89"/>
+      <c r="A148" s="90"/>
       <c r="B148" s="51"/>
       <c r="C148" s="49"/>
       <c r="D148" s="49" t="s">
@@ -9656,7 +9674,7 @@
       <c r="AJ148" s="22"/>
     </row>
     <row r="149" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A149" s="89"/>
+      <c r="A149" s="90"/>
       <c r="B149" s="51"/>
       <c r="C149" s="49"/>
       <c r="D149" s="49" t="s">
@@ -9700,7 +9718,7 @@
       <c r="AJ149" s="22"/>
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A150" s="89"/>
+      <c r="A150" s="90"/>
       <c r="B150" s="51"/>
       <c r="C150" s="49"/>
       <c r="D150" s="49" t="s">
@@ -9746,7 +9764,7 @@
       <c r="AJ150" s="22"/>
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A151" s="89"/>
+      <c r="A151" s="90"/>
       <c r="B151" s="51"/>
       <c r="C151" s="49"/>
       <c r="D151" s="49" t="s">
@@ -9792,7 +9810,7 @@
       <c r="AJ151" s="22"/>
     </row>
     <row r="152" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A152" s="89"/>
+      <c r="A152" s="90"/>
       <c r="B152" s="51"/>
       <c r="C152" s="49"/>
       <c r="D152" s="49" t="s">
@@ -9838,7 +9856,7 @@
       <c r="AJ152" s="22"/>
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A153" s="89"/>
+      <c r="A153" s="90"/>
       <c r="B153" s="51"/>
       <c r="C153" s="49"/>
       <c r="D153" s="49" t="s">
@@ -9884,7 +9902,7 @@
       <c r="AJ153" s="22"/>
     </row>
     <row r="154" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A154" s="89"/>
+      <c r="A154" s="90"/>
       <c r="B154" s="51"/>
       <c r="C154" s="49"/>
       <c r="D154" s="49" t="s">
@@ -9928,7 +9946,7 @@
       <c r="AJ154" s="22"/>
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A155" s="89"/>
+      <c r="A155" s="90"/>
       <c r="B155" s="51"/>
       <c r="C155" s="49"/>
       <c r="D155" s="49" t="s">
@@ -9972,7 +9990,7 @@
       <c r="AJ155" s="22"/>
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A156" s="89"/>
+      <c r="A156" s="90"/>
       <c r="B156" s="51"/>
       <c r="C156" s="49"/>
       <c r="D156" s="49" t="s">
@@ -10016,7 +10034,7 @@
       <c r="AJ156" s="22"/>
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A157" s="89"/>
+      <c r="A157" s="90"/>
       <c r="B157" s="51"/>
       <c r="C157" s="49"/>
       <c r="D157" s="49" t="s">
@@ -10060,7 +10078,7 @@
       <c r="AJ157" s="22"/>
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A158" s="89"/>
+      <c r="A158" s="90"/>
       <c r="B158" s="51"/>
       <c r="C158" s="49"/>
       <c r="D158" s="49" t="s">
@@ -10104,7 +10122,7 @@
       <c r="AJ158" s="22"/>
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A159" s="89"/>
+      <c r="A159" s="90"/>
       <c r="B159" s="51"/>
       <c r="C159" s="49"/>
       <c r="D159" s="49" t="s">
@@ -10148,7 +10166,7 @@
       <c r="AJ159" s="22"/>
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A160" s="89"/>
+      <c r="A160" s="90"/>
       <c r="B160" s="51"/>
       <c r="C160" s="49"/>
       <c r="D160" s="49" t="s">
@@ -10192,7 +10210,7 @@
       <c r="AJ160" s="22"/>
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A161" s="89"/>
+      <c r="A161" s="90"/>
       <c r="B161" s="51"/>
       <c r="C161" s="49"/>
       <c r="D161" s="49" t="s">
@@ -10236,7 +10254,7 @@
       <c r="AJ161" s="22"/>
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A162" s="89"/>
+      <c r="A162" s="90"/>
       <c r="B162" s="51"/>
       <c r="C162" s="49"/>
       <c r="D162" s="49" t="s">
@@ -10282,7 +10300,7 @@
       <c r="AJ162" s="22"/>
     </row>
     <row r="163" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A163" s="89"/>
+      <c r="A163" s="90"/>
       <c r="B163" s="51"/>
       <c r="C163" s="49"/>
       <c r="D163" s="49" t="s">
@@ -10328,7 +10346,7 @@
       <c r="AJ163" s="22"/>
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A164" s="89"/>
+      <c r="A164" s="90"/>
       <c r="B164" s="51"/>
       <c r="C164" s="49"/>
       <c r="D164" s="49" t="s">
@@ -10374,7 +10392,7 @@
       <c r="AJ164" s="22"/>
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A165" s="89"/>
+      <c r="A165" s="90"/>
       <c r="B165" s="51"/>
       <c r="C165" s="49"/>
       <c r="D165" s="49"/>
@@ -10412,7 +10430,7 @@
       <c r="AJ165" s="22"/>
     </row>
     <row r="166" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A166" s="89"/>
+      <c r="A166" s="90"/>
       <c r="B166" s="51"/>
       <c r="C166" s="49"/>
       <c r="D166" s="49" t="s">
@@ -10454,7 +10472,7 @@
       <c r="AJ166" s="22"/>
     </row>
     <row r="167" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A167" s="90"/>
+      <c r="A167" s="91"/>
       <c r="B167" s="51"/>
       <c r="C167" s="49"/>
       <c r="D167" s="49"/>
@@ -10530,7 +10548,7 @@
       <c r="AJ168" s="22"/>
     </row>
     <row r="169" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A169" s="85" t="s">
+      <c r="A169" s="86" t="s">
         <v>243</v>
       </c>
       <c r="B169" s="51"/>
@@ -10578,7 +10596,7 @@
       <c r="AJ169" s="22"/>
     </row>
     <row r="170" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A170" s="85"/>
+      <c r="A170" s="86"/>
       <c r="B170" s="51"/>
       <c r="C170" s="49"/>
       <c r="D170" s="49" t="s">
@@ -10624,7 +10642,7 @@
       <c r="AJ170" s="22"/>
     </row>
     <row r="171" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A171" s="85"/>
+      <c r="A171" s="86"/>
       <c r="B171" s="51"/>
       <c r="C171" s="49"/>
       <c r="D171" s="49" t="s">
@@ -10670,7 +10688,7 @@
       <c r="AJ171" s="22"/>
     </row>
     <row r="172" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A172" s="85"/>
+      <c r="A172" s="86"/>
       <c r="B172" s="51"/>
       <c r="C172" s="49"/>
       <c r="D172" s="49" t="s">
@@ -16802,522 +16820,522 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="69" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="69" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="69" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="69" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="69" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="69" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="69" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="70" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="70" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="70" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="70" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="70" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="70" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="70" t="s">
         <v>465</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="C1" s="70" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" s="70" t="s">
         <v>466</v>
       </c>
-      <c r="C1" s="69" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1" s="69" t="s">
+      <c r="E1" s="70" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1" s="70" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="69" t="s">
-        <v>495</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>468</v>
-      </c>
-      <c r="G1" s="69" t="s">
-        <v>495</v>
+      <c r="G1" s="70" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="69" t="s">
-        <v>395</v>
+      <c r="D2" s="70" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>447</v>
+      </c>
+      <c r="G3" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>402</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="D4" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="F4" s="70" t="s">
         <v>448</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G4" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>446</v>
+      </c>
+      <c r="G5" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>407</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>449</v>
+      </c>
+      <c r="G6" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>409</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>450</v>
+      </c>
+      <c r="G7" s="70">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>403</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>404</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>449</v>
-      </c>
-      <c r="G4" s="69">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>410</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>411</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="70">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>405</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>406</v>
-      </c>
-      <c r="F5" s="69" t="s">
-        <v>447</v>
-      </c>
-      <c r="G5" s="69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>407</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>408</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>450</v>
-      </c>
-      <c r="G6" s="69">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>451</v>
+      </c>
+      <c r="G9" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="G10" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>417</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>453</v>
+      </c>
+      <c r="G12" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>418</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>419</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>454</v>
+      </c>
+      <c r="G13" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>420</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>390</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>455</v>
+      </c>
+      <c r="G14" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>422</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>424</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>425</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>456</v>
+      </c>
+      <c r="G17" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>426</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>427</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>457</v>
+      </c>
+      <c r="G18" s="70">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>409</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>410</v>
-      </c>
-      <c r="F7" s="69" t="s">
-        <v>451</v>
-      </c>
-      <c r="G7" s="69">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>428</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>430</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>431</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>458</v>
+      </c>
+      <c r="G20" s="70">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>411</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>412</v>
-      </c>
-      <c r="F8" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="69">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="70" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>459</v>
+      </c>
+      <c r="G24" s="70">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>414</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="G9" s="69">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>460</v>
+      </c>
+      <c r="G25" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>461</v>
+      </c>
+      <c r="G26" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>338</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="D28" s="70" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>437</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>431</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>462</v>
+      </c>
+      <c r="G29" s="70">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>415</v>
-      </c>
-      <c r="D10" s="69" t="s">
-        <v>377</v>
-      </c>
-      <c r="F10" s="69" t="s">
-        <v>453</v>
-      </c>
-      <c r="G10" s="69">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>438</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>439</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>463</v>
+      </c>
+      <c r="G30" s="70">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>416</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>418</v>
-      </c>
-      <c r="F12" s="69" t="s">
-        <v>454</v>
-      </c>
-      <c r="G12" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>419</v>
-      </c>
-      <c r="D13" s="69" t="s">
-        <v>420</v>
-      </c>
-      <c r="F13" s="69" t="s">
-        <v>455</v>
-      </c>
-      <c r="G13" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>421</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>391</v>
-      </c>
-      <c r="F14" s="69" t="s">
-        <v>456</v>
-      </c>
-      <c r="G14" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>422</v>
-      </c>
-      <c r="D15" s="69" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>423</v>
-      </c>
-      <c r="D16" s="69" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>425</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>426</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>457</v>
-      </c>
-      <c r="G17" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>427</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>428</v>
-      </c>
-      <c r="F18" s="69" t="s">
-        <v>458</v>
-      </c>
-      <c r="G18" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>375</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>429</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>431</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>432</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>459</v>
-      </c>
-      <c r="G20" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="69" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="69" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="69" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>433</v>
-      </c>
-      <c r="F24" s="69" t="s">
-        <v>460</v>
-      </c>
-      <c r="G24" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="69" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>440</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="70" t="s">
+        <v>442</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>443</v>
+      </c>
+      <c r="D32" s="70" t="s">
         <v>434</v>
       </c>
-      <c r="F25" s="69" t="s">
-        <v>461</v>
-      </c>
-      <c r="G25" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="69" t="s">
-        <v>435</v>
-      </c>
-      <c r="F26" s="69" t="s">
-        <v>462</v>
-      </c>
-      <c r="G26" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>338</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>339</v>
-      </c>
-      <c r="D28" s="69" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>438</v>
-      </c>
-      <c r="D29" s="69" t="s">
-        <v>432</v>
-      </c>
-      <c r="F29" s="69" t="s">
-        <v>463</v>
-      </c>
-      <c r="G29" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="69" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="70" t="s">
+        <v>444</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="D33" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="D30" s="69" t="s">
-        <v>440</v>
-      </c>
-      <c r="F30" s="69" t="s">
-        <v>464</v>
-      </c>
-      <c r="G30" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="B31" s="69" t="s">
-        <v>441</v>
-      </c>
-      <c r="D31" s="69" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
-        <v>443</v>
-      </c>
-      <c r="B32" s="69" t="s">
-        <v>444</v>
-      </c>
-      <c r="D32" s="69" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
-        <v>445</v>
-      </c>
-      <c r="B33" s="69" t="s">
-        <v>446</v>
-      </c>
-      <c r="D33" s="69" t="s">
-        <v>440</v>
-      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
-        <v>494</v>
+      <c r="A35" s="70" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="72" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="72" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="71" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="72" t="s">
         <v>527</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="71" t="s">
-        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -17335,544 +17353,544 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="69" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="69" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="69" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="69" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="69" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="69" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="69" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="70" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="70" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="70" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="70" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="70" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="70" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="70" t="s">
         <v>465</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="C1" s="70" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" s="70" t="s">
         <v>466</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="E1" s="70" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="70">
+        <v>1</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>507</v>
+      </c>
+      <c r="E2" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" s="70">
+        <v>1</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>508</v>
+      </c>
+      <c r="E3" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" s="70">
+        <v>1</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>509</v>
+      </c>
+      <c r="E4" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" s="70">
+        <v>1</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>510</v>
+      </c>
+      <c r="E5" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" s="70">
+        <v>1</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>511</v>
+      </c>
+      <c r="E6" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7" s="70">
+        <v>1</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>512</v>
+      </c>
+      <c r="E7" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>503</v>
+      </c>
+      <c r="C8" s="70">
+        <v>1</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="E8" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>504</v>
+      </c>
+      <c r="C9" s="70">
+        <v>1</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="E9" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>505</v>
+      </c>
+      <c r="C10" s="70">
+        <v>1</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>513</v>
+      </c>
+      <c r="E10" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>506</v>
+      </c>
+      <c r="C11" s="70">
+        <v>1</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>514</v>
+      </c>
+      <c r="E11" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>468</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>515</v>
+      </c>
+      <c r="G14" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>516</v>
+      </c>
+      <c r="G15" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>517</v>
+      </c>
+      <c r="G17" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>470</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>471</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>390</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>518</v>
+      </c>
+      <c r="G19" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>472</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>392</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>519</v>
+      </c>
+      <c r="G20" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>473</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>520</v>
+      </c>
+      <c r="G21" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>474</v>
+      </c>
+      <c r="D22" s="70" t="s">
+        <v>440</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>521</v>
+      </c>
+      <c r="G22" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>475</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>443</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>522</v>
+      </c>
+      <c r="G23" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>476</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>477</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>523</v>
+      </c>
+      <c r="G25" s="70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="70" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>478</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>480</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="D28" s="70" t="s">
+        <v>483</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>524</v>
+      </c>
+      <c r="G28" s="70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>484</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="70" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="72" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="72" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="71" t="s">
+        <v>491</v>
+      </c>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="72" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="72" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="72" t="s">
         <v>495</v>
-      </c>
-      <c r="D1" s="69" t="s">
-        <v>467</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>495</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>468</v>
-      </c>
-      <c r="G1" s="69" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>498</v>
-      </c>
-      <c r="C2" s="69">
-        <v>1</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>508</v>
-      </c>
-      <c r="E2" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>499</v>
-      </c>
-      <c r="C3" s="69">
-        <v>1</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>509</v>
-      </c>
-      <c r="E3" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>500</v>
-      </c>
-      <c r="C4" s="69">
-        <v>1</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>510</v>
-      </c>
-      <c r="E4" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>501</v>
-      </c>
-      <c r="C5" s="69">
-        <v>1</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>511</v>
-      </c>
-      <c r="E5" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>502</v>
-      </c>
-      <c r="C6" s="69">
-        <v>1</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>512</v>
-      </c>
-      <c r="E6" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>503</v>
-      </c>
-      <c r="C7" s="69">
-        <v>1</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>513</v>
-      </c>
-      <c r="E7" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>504</v>
-      </c>
-      <c r="C8" s="69">
-        <v>1</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>397</v>
-      </c>
-      <c r="E8" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>505</v>
-      </c>
-      <c r="C9" s="69">
-        <v>1</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>399</v>
-      </c>
-      <c r="E9" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>506</v>
-      </c>
-      <c r="C10" s="69">
-        <v>1</v>
-      </c>
-      <c r="D10" s="69" t="s">
-        <v>514</v>
-      </c>
-      <c r="E10" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
-        <v>269</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>507</v>
-      </c>
-      <c r="C11" s="69">
-        <v>1</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>515</v>
-      </c>
-      <c r="E11" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
-        <v>273</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" s="69" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
-        <v>251</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>469</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>377</v>
-      </c>
-      <c r="F14" s="69" t="s">
-        <v>516</v>
-      </c>
-      <c r="G14" s="69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
-        <v>255</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>470</v>
-      </c>
-      <c r="D15" s="69" t="s">
-        <v>379</v>
-      </c>
-      <c r="F15" s="69" t="s">
-        <v>517</v>
-      </c>
-      <c r="G15" s="69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="69" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>383</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>518</v>
-      </c>
-      <c r="G17" s="69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>471</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>389</v>
-      </c>
-      <c r="F18" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>472</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>391</v>
-      </c>
-      <c r="F19" s="69" t="s">
-        <v>519</v>
-      </c>
-      <c r="G19" s="69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>473</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>393</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>520</v>
-      </c>
-      <c r="G20" s="69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>474</v>
-      </c>
-      <c r="D21" s="69" t="s">
-        <v>395</v>
-      </c>
-      <c r="F21" s="69" t="s">
-        <v>521</v>
-      </c>
-      <c r="G21" s="69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>475</v>
-      </c>
-      <c r="D22" s="69" t="s">
-        <v>441</v>
-      </c>
-      <c r="F22" s="69" t="s">
-        <v>522</v>
-      </c>
-      <c r="G22" s="69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="69" t="s">
-        <v>476</v>
-      </c>
-      <c r="D23" s="69" t="s">
-        <v>444</v>
-      </c>
-      <c r="F23" s="69" t="s">
-        <v>523</v>
-      </c>
-      <c r="G23" s="69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>477</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>478</v>
-      </c>
-      <c r="D25" s="69" t="s">
-        <v>446</v>
-      </c>
-      <c r="F25" s="69" t="s">
-        <v>524</v>
-      </c>
-      <c r="G25" s="69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
-        <v>277</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>479</v>
-      </c>
-      <c r="D26" s="69" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>481</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>483</v>
-      </c>
-      <c r="D28" s="69" t="s">
-        <v>484</v>
-      </c>
-      <c r="F28" s="69" t="s">
-        <v>525</v>
-      </c>
-      <c r="G28" s="69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>485</v>
-      </c>
-      <c r="D29" s="69" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" s="69" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="B31" s="69" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="B32" s="69" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
-        <v>200</v>
-      </c>
-      <c r="B33" s="69" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="71" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="71" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="70" t="s">
-        <v>492</v>
-      </c>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="71" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="71" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="71" t="s">
-        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -17890,381 +17908,381 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="69" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="69" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="69" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="69" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="69" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="69" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="69" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="70" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="70" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="70" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="70" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="70" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="70" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="70" t="s">
         <v>465</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="C1" s="70" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" s="70" t="s">
         <v>466</v>
       </c>
-      <c r="C1" s="69" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1" s="69" t="s">
+      <c r="E1" s="70" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1" s="70" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="69" t="s">
-        <v>495</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>468</v>
-      </c>
-      <c r="G1" s="69" t="s">
-        <v>495</v>
+      <c r="G1" s="70" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="69" t="s">
-        <v>575</v>
-      </c>
-      <c r="G2" s="69">
+      <c r="F2" s="70" t="s">
+        <v>574</v>
+      </c>
+      <c r="G2" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>529</v>
+      </c>
+      <c r="D4" s="70" t="s">
         <v>388</v>
       </c>
-      <c r="B4" s="69" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>530</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D5" s="70" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>376</v>
-      </c>
-      <c r="B5" s="69" t="s">
+      <c r="B6" s="70" t="s">
         <v>531</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D6" s="70" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
-        <v>390</v>
-      </c>
-      <c r="B6" s="69" t="s">
+      <c r="B7" s="70" t="s">
         <v>532</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D7" s="70" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
-        <v>378</v>
-      </c>
-      <c r="B7" s="69" t="s">
+      <c r="B8" s="70" t="s">
         <v>533</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D8" s="70" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
-        <v>392</v>
-      </c>
-      <c r="B8" s="69" t="s">
+      <c r="B9" s="70" t="s">
         <v>534</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D9" s="70" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="B9" s="69" t="s">
+      <c r="B10" s="70" t="s">
         <v>535</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D10" s="70" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
-        <v>394</v>
-      </c>
-      <c r="B10" s="69" t="s">
+      <c r="B11" s="70" t="s">
         <v>536</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D11" s="70" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>537</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>539</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>541</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>543</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>545</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>547</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>549</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>553</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>555</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="D22" s="70" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
-        <v>382</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>537</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>538</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>540</v>
-      </c>
-      <c r="D13" s="69" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>542</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>544</v>
-      </c>
-      <c r="D15" s="69" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>546</v>
-      </c>
-      <c r="D16" s="69" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>548</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>550</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>552</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>554</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
-        <v>386</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>556</v>
-      </c>
-      <c r="D21" s="69" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
-        <v>384</v>
-      </c>
-      <c r="B22" s="69" t="s">
+      <c r="B23" s="70" t="s">
         <v>557</v>
       </c>
-      <c r="D22" s="69" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="D23" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="B23" s="69" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="B24" s="70" t="s">
         <v>558</v>
       </c>
-      <c r="D23" s="69" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+      <c r="D24" s="70" t="s">
         <v>398</v>
       </c>
-      <c r="B24" s="69" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="70" t="s">
         <v>559</v>
       </c>
-      <c r="D24" s="69" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="69" t="s">
+      <c r="D25" s="70" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="70" t="s">
         <v>560</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D26" s="70" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="69" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="70" t="s">
         <v>561</v>
       </c>
-      <c r="D26" s="69" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="69" t="s">
+      <c r="D27" s="70" t="s">
         <v>562</v>
       </c>
-      <c r="D27" s="69" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="70" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="69" t="s">
+      <c r="D28" s="70" t="s">
         <v>564</v>
       </c>
-      <c r="D28" s="69" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="70" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="69" t="s">
+      <c r="D29" s="70" t="s">
         <v>566</v>
       </c>
-      <c r="D29" s="69" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="70" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="69" t="s">
+      <c r="D30" s="70" t="s">
         <v>568</v>
       </c>
-      <c r="D30" s="69" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="70" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="69" t="s">
+      <c r="D31" s="70" t="s">
         <v>570</v>
       </c>
-      <c r="D31" s="69" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="70" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="69" t="s">
+      <c r="D32" s="70" t="s">
         <v>572</v>
       </c>
-      <c r="D32" s="69" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="72" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="72" t="s">
         <v>573</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="71" t="s">
-        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -18282,319 +18300,319 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="69" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="69" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="69" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="69" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="69" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="69" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="69" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="70" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="70" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="70" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="70" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="70" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="70" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="70" t="s">
         <v>465</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="C1" s="70" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" s="70" t="s">
         <v>466</v>
       </c>
-      <c r="C1" s="69" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1" s="69" t="s">
+      <c r="E1" s="70" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1" s="70" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="69" t="s">
-        <v>495</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>468</v>
-      </c>
-      <c r="G1" s="69" t="s">
-        <v>495</v>
+      <c r="G1" s="70" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
+        <v>575</v>
+      </c>
+      <c r="D2" s="70" t="s">
         <v>576</v>
       </c>
-      <c r="D2" s="69" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="70" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="69" t="s">
+      <c r="D3" s="70" t="s">
         <v>578</v>
       </c>
-      <c r="D3" s="69" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="D4" s="70" t="s">
         <v>580</v>
       </c>
-      <c r="D4" s="69" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="69" t="s">
+      <c r="D5" s="70" t="s">
         <v>582</v>
       </c>
-      <c r="D5" s="69" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="70" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
-        <v>374</v>
-      </c>
-      <c r="B6" s="69" t="s">
+      <c r="D6" s="70" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="70" t="s">
         <v>584</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D7" s="70" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
-        <v>289</v>
-      </c>
-      <c r="B7" s="69" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="70" t="s">
         <v>585</v>
       </c>
-      <c r="D7" s="69" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="69" t="s">
+      <c r="D8" s="70" t="s">
         <v>586</v>
       </c>
-      <c r="D8" s="69" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="70" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="69" t="s">
+      <c r="D9" s="70" t="s">
         <v>588</v>
       </c>
-      <c r="D9" s="69" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="70" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="69" t="s">
+      <c r="D10" s="70" t="s">
         <v>590</v>
       </c>
-      <c r="D10" s="69" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="70" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="69" t="s">
+      <c r="D11" s="70" t="s">
         <v>592</v>
       </c>
-      <c r="D11" s="69" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="70" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="69" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="B13" s="70" t="s">
         <v>595</v>
       </c>
-      <c r="B13" s="69" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="B14" s="70" t="s">
         <v>597</v>
       </c>
-      <c r="B14" s="69" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="70" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="B15" s="70" t="s">
         <v>599</v>
       </c>
-      <c r="B15" s="69" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="70" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="B16" s="70" t="s">
         <v>601</v>
       </c>
-      <c r="B16" s="69" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="70" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="B17" s="70" t="s">
         <v>603</v>
       </c>
-      <c r="B17" s="69" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="B18" s="70" t="s">
         <v>605</v>
       </c>
-      <c r="B18" s="69" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+      <c r="B19" s="70" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
         <v>607</v>
       </c>
-      <c r="B19" s="69" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="B20" s="70" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
         <v>608</v>
       </c>
-      <c r="B20" s="69" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+      <c r="B21" s="70" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
         <v>609</v>
       </c>
-      <c r="B21" s="69" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+      <c r="B22" s="70" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="B22" s="69" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="B23" s="70" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="B23" s="69" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+      <c r="B24" s="70" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="70" t="s">
         <v>612</v>
       </c>
-      <c r="B24" s="69" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+      <c r="B25" s="70" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="70" t="s">
         <v>613</v>
       </c>
-      <c r="B25" s="69" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+      <c r="B26" s="70" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="70" t="s">
         <v>614</v>
       </c>
-      <c r="B26" s="69" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="B27" s="70" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="70" t="s">
         <v>615</v>
       </c>
-      <c r="B27" s="69" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="B28" s="70" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="70" t="s">
         <v>616</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B29" s="70" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="70" t="s">
         <v>617</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B30" s="70" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="70" t="s">
         <v>618</v>
       </c>
-      <c r="B30" s="69" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+      <c r="B31" s="70" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="70" t="s">
         <v>619</v>
       </c>
-      <c r="B31" s="69" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
-        <v>620</v>
-      </c>
-      <c r="B32" s="69" t="s">
-        <v>436</v>
+      <c r="B32" s="70" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
-        <v>494</v>
+      <c r="A34" s="72" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/M2 Pin Mapping.xlsx
+++ b/M2 Pin Mapping.xlsx
@@ -1063,9 +1063,6 @@
     <t>SPI0_CS1</t>
   </si>
   <si>
-    <t>PS_BUCK  BUCK_DIS</t>
-  </si>
-  <si>
     <t>PS_J1850_9141</t>
   </si>
   <si>
@@ -1078,12 +1075,6 @@
     <t>J1850N_TX</t>
   </si>
   <si>
-    <t>CAN0_CS  HS_CS</t>
-  </si>
-  <si>
-    <t>CAN1_CS  MS_CS</t>
-  </si>
-  <si>
     <t>I_SENSE_EN</t>
   </si>
   <si>
@@ -1117,9 +1108,6 @@
     <t>CPU Test Point</t>
   </si>
   <si>
-    <t>CPU_TEMP  A15</t>
-  </si>
-  <si>
     <t>GPIO Power Supply Analog Current Sense</t>
   </si>
   <si>
@@ -1910,6 +1898,18 @@
   </si>
   <si>
     <t>Power Supply</t>
+  </si>
+  <si>
+    <t>CAN0_CS / HS_CS</t>
+  </si>
+  <si>
+    <t>CAN1_CS / MS_CS</t>
+  </si>
+  <si>
+    <t>CPU_TEMP / A15</t>
+  </si>
+  <si>
+    <t>PS_BUCK / BUCK_DIS</t>
   </si>
 </sst>
 </file>
@@ -2359,6 +2359,45 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2366,24 +2405,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2420,27 +2441,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2729,8 +2729,8 @@
   <dimension ref="A1:AJ352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2745,25 +2745,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="95" t="s">
-        <v>357</v>
-      </c>
-      <c r="F1" s="95" t="s">
+      <c r="E1" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="72" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       <c r="A2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="90">
+      <c r="B2" s="69">
         <v>14</v>
       </c>
       <c r="C2" s="68" t="s">
@@ -2780,11 +2780,11 @@
       <c r="D2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92">
+      <c r="F2" s="70"/>
+      <c r="G2" s="71">
         <v>32</v>
       </c>
       <c r="H2" s="19"/>
@@ -3192,7 +3192,7 @@
       <c r="AJ10" s="20"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="85" t="s">
         <v>321</v>
       </c>
       <c r="B11" s="34">
@@ -3208,7 +3208,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G11" s="4">
         <v>138</v>
@@ -3244,7 +3244,7 @@
       <c r="AJ11" s="19"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="34">
         <v>23</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G12" s="4">
         <v>121</v>
@@ -3332,8 +3332,8 @@
       <c r="AJ13" s="20"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
-        <v>399</v>
+      <c r="A14" s="78" t="s">
+        <v>395</v>
       </c>
       <c r="B14" s="37">
         <v>36</v>
@@ -3710,8 +3710,8 @@
       <c r="AJ21" s="20"/>
     </row>
     <row r="22" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
-        <v>400</v>
+      <c r="A22" s="78" t="s">
+        <v>396</v>
       </c>
       <c r="B22" s="37">
         <f>B101</f>
@@ -3962,7 +3962,7 @@
       <c r="AJ26" s="20"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="79" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="34">
@@ -3972,13 +3972,13 @@
         <v>322</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G27" s="4">
         <v>60</v>
@@ -4014,7 +4014,7 @@
       <c r="AJ27" s="19"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="34">
         <v>25</v>
       </c>
@@ -4022,13 +4022,13 @@
         <v>323</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G28" s="4">
         <v>63</v>
@@ -4064,7 +4064,7 @@
       <c r="AJ28" s="19"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="34">
         <v>26</v>
       </c>
@@ -4072,13 +4072,13 @@
         <v>324</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E29" s="32" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G29" s="4">
         <v>65</v>
@@ -4114,7 +4114,7 @@
       <c r="AJ29" s="19"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
+      <c r="A30" s="81"/>
       <c r="B30" s="34">
         <v>27</v>
       </c>
@@ -4122,13 +4122,13 @@
         <v>325</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E30" s="32" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G30" s="4">
         <v>67</v>
@@ -4164,7 +4164,7 @@
       <c r="AJ30" s="19"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="34">
         <v>28</v>
       </c>
@@ -4172,13 +4172,13 @@
         <v>326</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>49</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G31" s="4">
         <v>131</v>
@@ -4214,7 +4214,7 @@
       <c r="AJ31" s="19"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="34">
         <v>29</v>
       </c>
@@ -4222,13 +4222,13 @@
         <v>327</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G32" s="4">
         <v>101</v>
@@ -4264,7 +4264,7 @@
       <c r="AJ32" s="19"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="34">
         <v>30</v>
       </c>
@@ -4272,13 +4272,13 @@
         <v>328</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E33" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G33" s="4">
         <v>59</v>
@@ -4314,7 +4314,7 @@
       <c r="AJ33" s="19"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
+      <c r="A34" s="81"/>
       <c r="B34" s="34">
         <v>31</v>
       </c>
@@ -4322,13 +4322,13 @@
         <v>329</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E34" s="32" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G34" s="4">
         <v>116</v>
@@ -4364,7 +4364,7 @@
       <c r="AJ34" s="19"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
+      <c r="A35" s="81"/>
       <c r="B35" s="34">
         <v>32</v>
       </c>
@@ -4372,13 +4372,13 @@
         <v>330</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E35" s="32" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G35" s="4">
         <v>64</v>
@@ -4414,7 +4414,7 @@
       <c r="AJ35" s="19"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
+      <c r="A36" s="81"/>
       <c r="B36" s="34">
         <v>33</v>
       </c>
@@ -4422,13 +4422,13 @@
         <v>331</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E36" s="32" t="s">
         <v>48</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G36" s="4">
         <v>66</v>
@@ -4464,7 +4464,7 @@
       <c r="AJ36" s="19"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
+      <c r="A37" s="81"/>
       <c r="B37" s="34">
         <v>34</v>
       </c>
@@ -4472,13 +4472,13 @@
         <v>332</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E37" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G37" s="4">
         <v>132</v>
@@ -4514,7 +4514,7 @@
       <c r="AJ37" s="19"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="34">
         <v>35</v>
       </c>
@@ -4522,13 +4522,13 @@
         <v>333</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E38" s="32" t="s">
         <v>52</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G38" s="4">
         <v>133</v>
@@ -4602,14 +4602,14 @@
       <c r="AJ39" s="20"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="78" t="s">
         <v>336</v>
       </c>
       <c r="B40" s="37">
         <v>86</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>54</v>
@@ -4657,7 +4657,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>56</v>
@@ -4705,7 +4705,7 @@
         <v>88</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>58</v>
@@ -4753,7 +4753,7 @@
         <v>89</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>60</v>
@@ -4801,7 +4801,7 @@
         <v>90</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D44" s="36" t="s">
         <v>62</v>
@@ -4849,7 +4849,7 @@
         <v>91</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D45" s="36" t="s">
         <v>64</v>
@@ -4930,14 +4930,14 @@
       <c r="AJ46" s="19"/>
     </row>
     <row r="47" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="72" t="s">
+      <c r="A47" s="79" t="s">
         <v>335</v>
       </c>
       <c r="B47" s="34">
         <v>75</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D47" s="33" t="s">
         <v>66</v>
@@ -4946,7 +4946,7 @@
         <v>65</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G47" s="4">
         <v>135</v>
@@ -4982,12 +4982,12 @@
       <c r="AJ47" s="19"/>
     </row>
     <row r="48" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
+      <c r="A48" s="81"/>
       <c r="B48" s="34">
         <v>93</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D48" s="33" t="s">
         <v>68</v>
@@ -4996,7 +4996,7 @@
         <v>67</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G48" s="4">
         <v>88</v>
@@ -5032,12 +5032,12 @@
       <c r="AJ48" s="19"/>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A49" s="73"/>
+      <c r="A49" s="81"/>
       <c r="B49" s="34">
         <v>76</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D49" s="33" t="s">
         <v>70</v>
@@ -5046,7 +5046,7 @@
         <v>69</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G49" s="4">
         <v>14</v>
@@ -5082,12 +5082,12 @@
       <c r="AJ49" s="19"/>
     </row>
     <row r="50" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="74"/>
+      <c r="A50" s="80"/>
       <c r="B50" s="34">
         <v>95</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D50" s="33" t="s">
         <v>72</v>
@@ -5096,7 +5096,7 @@
         <v>71</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G50" s="4">
         <v>77</v>
@@ -5170,7 +5170,7 @@
       <c r="AJ51" s="20"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A52" s="75" t="s">
+      <c r="A52" s="78" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="37">
@@ -5273,7 +5273,7 @@
         <v>71</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>348</v>
+        <v>622</v>
       </c>
       <c r="D54" s="36" t="s">
         <v>79</v>
@@ -5417,7 +5417,7 @@
         <v>25</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>349</v>
+        <v>623</v>
       </c>
       <c r="D57" s="36" t="s">
         <v>85</v>
@@ -5498,14 +5498,14 @@
       <c r="AJ58" s="19"/>
     </row>
     <row r="59" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="72" t="s">
-        <v>625</v>
+      <c r="A59" s="79" t="s">
+        <v>621</v>
       </c>
       <c r="B59" s="34">
         <v>48</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>343</v>
+        <v>625</v>
       </c>
       <c r="D59" s="33" t="s">
         <v>98</v>
@@ -5548,12 +5548,12 @@
       <c r="AJ59" s="19"/>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A60" s="74"/>
+      <c r="A60" s="80"/>
       <c r="B60" s="34">
         <v>49</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D60" s="33" t="s">
         <v>100</v>
@@ -5598,14 +5598,14 @@
       <c r="AJ60" s="19"/>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A61" s="72" t="s">
+      <c r="A61" s="79" t="s">
         <v>86</v>
       </c>
       <c r="B61" s="34">
         <v>50</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D61" s="33" t="s">
         <v>88</v>
@@ -5648,7 +5648,7 @@
       <c r="AJ61" s="19"/>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A62" s="73"/>
+      <c r="A62" s="81"/>
       <c r="B62" s="34">
         <v>51</v>
       </c>
@@ -5696,7 +5696,7 @@
       <c r="AJ62" s="19"/>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A63" s="73"/>
+      <c r="A63" s="81"/>
       <c r="B63" s="34">
         <v>52</v>
       </c>
@@ -5744,12 +5744,12 @@
       <c r="AJ63" s="19"/>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A64" s="73"/>
+      <c r="A64" s="81"/>
       <c r="B64" s="34">
         <v>53</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D64" s="33" t="s">
         <v>94</v>
@@ -5792,12 +5792,12 @@
       <c r="AJ64" s="19"/>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A65" s="74"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="34">
         <v>54</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D65" s="33" t="s">
         <v>96</v>
@@ -5878,7 +5878,7 @@
       <c r="AJ66" s="19"/>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A67" s="72" t="s">
+      <c r="A67" s="79" t="s">
         <v>102</v>
       </c>
       <c r="B67" s="34">
@@ -5930,7 +5930,7 @@
       <c r="AJ67" s="19"/>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A68" s="73"/>
+      <c r="A68" s="81"/>
       <c r="B68" s="34">
         <v>1</v>
       </c>
@@ -5980,7 +5980,7 @@
       <c r="AJ68" s="19"/>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A69" s="73"/>
+      <c r="A69" s="81"/>
       <c r="B69" s="34">
         <v>4</v>
       </c>
@@ -6028,7 +6028,7 @@
       <c r="AJ69" s="19"/>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A70" s="73"/>
+      <c r="A70" s="81"/>
       <c r="B70" s="34">
         <v>7</v>
       </c>
@@ -6076,7 +6076,7 @@
       <c r="AJ70" s="19"/>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A71" s="73"/>
+      <c r="A71" s="81"/>
       <c r="B71" s="34">
         <v>11</v>
       </c>
@@ -6124,7 +6124,7 @@
       <c r="AJ71" s="19"/>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A72" s="73"/>
+      <c r="A72" s="81"/>
       <c r="B72" s="34">
         <v>12</v>
       </c>
@@ -6172,7 +6172,7 @@
       <c r="AJ72" s="19"/>
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A73" s="73"/>
+      <c r="A73" s="81"/>
       <c r="B73" s="34">
         <v>8</v>
       </c>
@@ -6220,7 +6220,7 @@
       <c r="AJ73" s="19"/>
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A74" s="73"/>
+      <c r="A74" s="81"/>
       <c r="B74" s="34">
         <v>3</v>
       </c>
@@ -6268,7 +6268,7 @@
       <c r="AJ74" s="19"/>
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A75" s="73"/>
+      <c r="A75" s="81"/>
       <c r="B75" s="34">
         <v>5</v>
       </c>
@@ -6316,7 +6316,7 @@
       <c r="AJ75" s="19"/>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A76" s="73"/>
+      <c r="A76" s="81"/>
       <c r="B76" s="34">
         <v>6</v>
       </c>
@@ -6364,7 +6364,7 @@
       <c r="AJ76" s="19"/>
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A77" s="73"/>
+      <c r="A77" s="81"/>
       <c r="B77" s="34">
         <v>9</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="AJ77" s="19"/>
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A78" s="73"/>
+      <c r="A78" s="81"/>
       <c r="B78" s="34">
         <v>2</v>
       </c>
@@ -6460,7 +6460,7 @@
       <c r="AJ78" s="19"/>
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A79" s="73"/>
+      <c r="A79" s="81"/>
       <c r="B79" s="34">
         <v>10</v>
       </c>
@@ -6508,7 +6508,7 @@
       <c r="AJ79" s="19"/>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A80" s="74"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="34">
         <v>13</v>
       </c>
@@ -6594,7 +6594,7 @@
       <c r="AJ81" s="19"/>
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A82" s="86" t="s">
+      <c r="A82" s="93" t="s">
         <v>138</v>
       </c>
       <c r="B82" s="37">
@@ -6646,7 +6646,7 @@
       <c r="AJ82" s="19"/>
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A83" s="86"/>
+      <c r="A83" s="93"/>
       <c r="B83" s="37">
         <v>56</v>
       </c>
@@ -6694,7 +6694,7 @@
       <c r="AJ83" s="19"/>
     </row>
     <row r="84" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="86"/>
+      <c r="A84" s="93"/>
       <c r="B84" s="37">
         <v>57</v>
       </c>
@@ -6742,7 +6742,7 @@
       <c r="AJ84" s="19"/>
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A85" s="86"/>
+      <c r="A85" s="93"/>
       <c r="B85" s="37">
         <v>58</v>
       </c>
@@ -6792,7 +6792,7 @@
       <c r="AJ85" s="19"/>
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A86" s="86"/>
+      <c r="A86" s="93"/>
       <c r="B86" s="37">
         <v>59</v>
       </c>
@@ -6840,7 +6840,7 @@
       <c r="AJ86" s="19"/>
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A87" s="86"/>
+      <c r="A87" s="93"/>
       <c r="B87" s="37">
         <v>60</v>
       </c>
@@ -6926,7 +6926,7 @@
       <c r="AJ88" s="19"/>
     </row>
     <row r="89" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="72" t="s">
+      <c r="A89" s="79" t="s">
         <v>334</v>
       </c>
       <c r="B89" s="34">
@@ -6976,7 +6976,7 @@
       <c r="AJ89" s="19"/>
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A90" s="73"/>
+      <c r="A90" s="81"/>
       <c r="B90" s="34">
         <v>64</v>
       </c>
@@ -7024,7 +7024,7 @@
       <c r="AJ90" s="19"/>
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A91" s="73"/>
+      <c r="A91" s="81"/>
       <c r="B91" s="34">
         <v>68</v>
       </c>
@@ -7072,7 +7072,7 @@
       <c r="AJ91" s="19"/>
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A92" s="73"/>
+      <c r="A92" s="81"/>
       <c r="B92" s="34">
         <v>66</v>
       </c>
@@ -7120,7 +7120,7 @@
       <c r="AJ92" s="19"/>
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A93" s="73"/>
+      <c r="A93" s="81"/>
       <c r="B93" s="34">
         <v>63</v>
       </c>
@@ -7168,7 +7168,7 @@
       <c r="AJ93" s="19"/>
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A94" s="73"/>
+      <c r="A94" s="81"/>
       <c r="B94" s="34">
         <v>67</v>
       </c>
@@ -7216,7 +7216,7 @@
       <c r="AJ94" s="19"/>
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A95" s="73"/>
+      <c r="A95" s="81"/>
       <c r="B95" s="34">
         <v>61</v>
       </c>
@@ -7264,7 +7264,7 @@
       <c r="AJ95" s="19"/>
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A96" s="74"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="34">
         <v>62</v>
       </c>
@@ -7350,7 +7350,7 @@
       <c r="AJ97" s="19"/>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A98" s="75" t="s">
+      <c r="A98" s="78" t="s">
         <v>337</v>
       </c>
       <c r="B98" s="47">
@@ -7638,23 +7638,23 @@
       <c r="AJ103" s="19"/>
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A104" s="87" t="s">
+      <c r="A104" s="94" t="s">
         <v>178</v>
       </c>
       <c r="B104" s="54">
         <v>77</v>
       </c>
       <c r="C104" s="53" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D104" s="53" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E104" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="F104" s="84" t="s">
-        <v>354</v>
+      <c r="F104" s="91" t="s">
+        <v>351</v>
       </c>
       <c r="G104" s="4">
         <v>17</v>
@@ -7690,12 +7690,12 @@
       <c r="AJ104" s="19"/>
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A105" s="88"/>
+      <c r="A105" s="95"/>
       <c r="B105" s="55">
         <v>78</v>
       </c>
       <c r="C105" s="56" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D105" s="56" t="s">
         <v>289</v>
@@ -7703,7 +7703,7 @@
       <c r="E105" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="F105" s="85"/>
+      <c r="F105" s="92"/>
       <c r="G105" s="4">
         <v>18</v>
       </c>
@@ -7738,20 +7738,20 @@
       <c r="AJ105" s="19"/>
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A106" s="88"/>
+      <c r="A106" s="95"/>
       <c r="B106" s="55">
         <v>79</v>
       </c>
       <c r="C106" s="56" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D106" s="56" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E106" s="57" t="s">
-        <v>358</v>
-      </c>
-      <c r="F106" s="69" t="s">
+        <v>355</v>
+      </c>
+      <c r="F106" s="82" t="s">
         <v>242</v>
       </c>
       <c r="G106" s="4">
@@ -7788,7 +7788,7 @@
       <c r="AJ106" s="19"/>
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A107" s="88"/>
+      <c r="A107" s="95"/>
       <c r="B107" s="55">
         <v>80</v>
       </c>
@@ -7801,7 +7801,7 @@
       <c r="E107" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="F107" s="70"/>
+      <c r="F107" s="83"/>
       <c r="G107" s="4">
         <v>70</v>
       </c>
@@ -7836,12 +7836,12 @@
       <c r="AJ107" s="19"/>
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A108" s="89"/>
+      <c r="A108" s="96"/>
       <c r="B108" s="55">
         <v>83</v>
       </c>
       <c r="C108" s="56" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D108" s="56" t="s">
         <v>170</v>
@@ -7924,8 +7924,8 @@
       <c r="AJ109" s="19"/>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A110" s="79" t="s">
-        <v>364</v>
+      <c r="A110" s="86" t="s">
+        <v>360</v>
       </c>
       <c r="B110" s="50">
         <v>92</v>
@@ -7976,12 +7976,12 @@
       <c r="AJ110" s="19"/>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A111" s="80"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="50">
         <v>94</v>
       </c>
       <c r="C111" s="49" t="s">
-        <v>361</v>
+        <v>624</v>
       </c>
       <c r="D111" s="49" t="s">
         <v>289</v>
@@ -8064,8 +8064,8 @@
       <c r="AJ112" s="19"/>
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A113" s="72" t="s">
-        <v>621</v>
+      <c r="A113" s="79" t="s">
+        <v>617</v>
       </c>
       <c r="B113" s="55">
         <v>81</v>
@@ -8079,7 +8079,7 @@
       <c r="E113" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="F113" s="69" t="s">
+      <c r="F113" s="82" t="s">
         <v>253</v>
       </c>
       <c r="G113" s="4">
@@ -8116,7 +8116,7 @@
       <c r="AJ113" s="19"/>
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A114" s="74"/>
+      <c r="A114" s="80"/>
       <c r="B114" s="55">
         <v>82</v>
       </c>
@@ -8129,7 +8129,7 @@
       <c r="E114" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="F114" s="70"/>
+      <c r="F114" s="83"/>
       <c r="G114" s="4">
         <v>87</v>
       </c>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" s="51" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B116" s="50">
         <v>84</v>
@@ -8255,22 +8255,22 @@
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" s="51" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B117" s="50">
         <v>85</v>
       </c>
       <c r="C117" s="49" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D117" s="49" t="s">
         <v>169</v>
       </c>
       <c r="E117" s="48" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F117" s="48" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G117" s="4">
         <v>55</v>
@@ -8558,7 +8558,7 @@
       <c r="AJ123" s="19"/>
     </row>
     <row r="124" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="81" t="s">
+      <c r="A124" s="88" t="s">
         <v>244</v>
       </c>
       <c r="B124" s="46"/>
@@ -8604,7 +8604,7 @@
       <c r="AJ124" s="19"/>
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A125" s="82"/>
+      <c r="A125" s="89"/>
       <c r="B125" s="46"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44" t="s">
@@ -8648,7 +8648,7 @@
       <c r="AJ125" s="19"/>
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A126" s="82"/>
+      <c r="A126" s="89"/>
       <c r="B126" s="46"/>
       <c r="C126" s="44"/>
       <c r="D126" s="44" t="s">
@@ -8692,7 +8692,7 @@
       <c r="AJ126" s="19"/>
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A127" s="82"/>
+      <c r="A127" s="89"/>
       <c r="B127" s="46"/>
       <c r="C127" s="44"/>
       <c r="D127" s="44" t="s">
@@ -8736,7 +8736,7 @@
       <c r="AJ127" s="19"/>
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A128" s="82"/>
+      <c r="A128" s="89"/>
       <c r="B128" s="46"/>
       <c r="C128" s="44"/>
       <c r="D128" s="44" t="s">
@@ -8780,7 +8780,7 @@
       <c r="AJ128" s="19"/>
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A129" s="82"/>
+      <c r="A129" s="89"/>
       <c r="B129" s="46"/>
       <c r="C129" s="44"/>
       <c r="D129" s="44" t="s">
@@ -8824,7 +8824,7 @@
       <c r="AJ129" s="19"/>
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A130" s="82"/>
+      <c r="A130" s="89"/>
       <c r="B130" s="46"/>
       <c r="C130" s="44"/>
       <c r="D130" s="44" t="s">
@@ -8868,7 +8868,7 @@
       <c r="AJ130" s="19"/>
     </row>
     <row r="131" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A131" s="82"/>
+      <c r="A131" s="89"/>
       <c r="B131" s="46"/>
       <c r="C131" s="44"/>
       <c r="D131" s="44" t="s">
@@ -8912,7 +8912,7 @@
       <c r="AJ131" s="19"/>
     </row>
     <row r="132" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A132" s="82"/>
+      <c r="A132" s="89"/>
       <c r="B132" s="46"/>
       <c r="C132" s="44"/>
       <c r="D132" s="44" t="s">
@@ -8956,7 +8956,7 @@
       <c r="AJ132" s="19"/>
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A133" s="82"/>
+      <c r="A133" s="89"/>
       <c r="B133" s="46"/>
       <c r="C133" s="44"/>
       <c r="D133" s="44" t="s">
@@ -9000,7 +9000,7 @@
       <c r="AJ133" s="19"/>
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A134" s="82"/>
+      <c r="A134" s="89"/>
       <c r="B134" s="46"/>
       <c r="C134" s="44"/>
       <c r="D134" s="44" t="s">
@@ -9044,7 +9044,7 @@
       <c r="AJ134" s="19"/>
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A135" s="82"/>
+      <c r="A135" s="89"/>
       <c r="B135" s="46"/>
       <c r="C135" s="44"/>
       <c r="D135" s="44" t="s">
@@ -9088,7 +9088,7 @@
       <c r="AJ135" s="19"/>
     </row>
     <row r="136" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A136" s="82"/>
+      <c r="A136" s="89"/>
       <c r="B136" s="46"/>
       <c r="C136" s="44"/>
       <c r="D136" s="44" t="s">
@@ -9132,7 +9132,7 @@
       <c r="AJ136" s="19"/>
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A137" s="82"/>
+      <c r="A137" s="89"/>
       <c r="B137" s="46"/>
       <c r="C137" s="44"/>
       <c r="D137" s="44" t="s">
@@ -9176,7 +9176,7 @@
       <c r="AJ137" s="19"/>
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A138" s="82"/>
+      <c r="A138" s="89"/>
       <c r="B138" s="46"/>
       <c r="C138" s="44"/>
       <c r="D138" s="44" t="s">
@@ -9220,7 +9220,7 @@
       <c r="AJ138" s="19"/>
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A139" s="82"/>
+      <c r="A139" s="89"/>
       <c r="B139" s="46"/>
       <c r="C139" s="44"/>
       <c r="D139" s="44" t="s">
@@ -9266,7 +9266,7 @@
       <c r="AJ139" s="19"/>
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A140" s="82"/>
+      <c r="A140" s="89"/>
       <c r="B140" s="46"/>
       <c r="C140" s="44"/>
       <c r="D140" s="44" t="s">
@@ -9312,7 +9312,7 @@
       <c r="AJ140" s="19"/>
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A141" s="82"/>
+      <c r="A141" s="89"/>
       <c r="B141" s="46"/>
       <c r="C141" s="44"/>
       <c r="D141" s="44" t="s">
@@ -9358,7 +9358,7 @@
       <c r="AJ141" s="19"/>
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A142" s="82"/>
+      <c r="A142" s="89"/>
       <c r="B142" s="46"/>
       <c r="C142" s="44"/>
       <c r="D142" s="44" t="s">
@@ -9404,7 +9404,7 @@
       <c r="AJ142" s="19"/>
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A143" s="82"/>
+      <c r="A143" s="89"/>
       <c r="B143" s="46"/>
       <c r="C143" s="44"/>
       <c r="D143" s="44" t="s">
@@ -9450,7 +9450,7 @@
       <c r="AJ143" s="19"/>
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A144" s="82"/>
+      <c r="A144" s="89"/>
       <c r="B144" s="46"/>
       <c r="C144" s="44"/>
       <c r="D144" s="44" t="s">
@@ -9494,7 +9494,7 @@
       <c r="AJ144" s="19"/>
     </row>
     <row r="145" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A145" s="82"/>
+      <c r="A145" s="89"/>
       <c r="B145" s="46"/>
       <c r="C145" s="44"/>
       <c r="D145" s="44" t="s">
@@ -9538,7 +9538,7 @@
       <c r="AJ145" s="19"/>
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A146" s="82"/>
+      <c r="A146" s="89"/>
       <c r="B146" s="46"/>
       <c r="C146" s="44"/>
       <c r="D146" s="44" t="s">
@@ -9582,7 +9582,7 @@
       <c r="AJ146" s="19"/>
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A147" s="82"/>
+      <c r="A147" s="89"/>
       <c r="B147" s="46"/>
       <c r="C147" s="44"/>
       <c r="D147" s="44" t="s">
@@ -9626,7 +9626,7 @@
       <c r="AJ147" s="19"/>
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A148" s="82"/>
+      <c r="A148" s="89"/>
       <c r="B148" s="46"/>
       <c r="C148" s="44"/>
       <c r="D148" s="44" t="s">
@@ -9672,7 +9672,7 @@
       <c r="AJ148" s="19"/>
     </row>
     <row r="149" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A149" s="82"/>
+      <c r="A149" s="89"/>
       <c r="B149" s="46"/>
       <c r="C149" s="44"/>
       <c r="D149" s="44" t="s">
@@ -9716,7 +9716,7 @@
       <c r="AJ149" s="19"/>
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A150" s="82"/>
+      <c r="A150" s="89"/>
       <c r="B150" s="46"/>
       <c r="C150" s="44"/>
       <c r="D150" s="44" t="s">
@@ -9762,7 +9762,7 @@
       <c r="AJ150" s="19"/>
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A151" s="82"/>
+      <c r="A151" s="89"/>
       <c r="B151" s="46"/>
       <c r="C151" s="44"/>
       <c r="D151" s="44" t="s">
@@ -9808,7 +9808,7 @@
       <c r="AJ151" s="19"/>
     </row>
     <row r="152" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A152" s="82"/>
+      <c r="A152" s="89"/>
       <c r="B152" s="46"/>
       <c r="C152" s="44"/>
       <c r="D152" s="44" t="s">
@@ -9854,7 +9854,7 @@
       <c r="AJ152" s="19"/>
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A153" s="82"/>
+      <c r="A153" s="89"/>
       <c r="B153" s="46"/>
       <c r="C153" s="44"/>
       <c r="D153" s="44" t="s">
@@ -9900,7 +9900,7 @@
       <c r="AJ153" s="19"/>
     </row>
     <row r="154" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A154" s="82"/>
+      <c r="A154" s="89"/>
       <c r="B154" s="46"/>
       <c r="C154" s="44"/>
       <c r="D154" s="44" t="s">
@@ -9944,7 +9944,7 @@
       <c r="AJ154" s="19"/>
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A155" s="82"/>
+      <c r="A155" s="89"/>
       <c r="B155" s="46"/>
       <c r="C155" s="44"/>
       <c r="D155" s="44" t="s">
@@ -9988,7 +9988,7 @@
       <c r="AJ155" s="19"/>
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A156" s="82"/>
+      <c r="A156" s="89"/>
       <c r="B156" s="46"/>
       <c r="C156" s="44"/>
       <c r="D156" s="44" t="s">
@@ -10032,7 +10032,7 @@
       <c r="AJ156" s="19"/>
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A157" s="82"/>
+      <c r="A157" s="89"/>
       <c r="B157" s="46"/>
       <c r="C157" s="44"/>
       <c r="D157" s="44" t="s">
@@ -10076,7 +10076,7 @@
       <c r="AJ157" s="19"/>
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A158" s="82"/>
+      <c r="A158" s="89"/>
       <c r="B158" s="46"/>
       <c r="C158" s="44"/>
       <c r="D158" s="44" t="s">
@@ -10120,7 +10120,7 @@
       <c r="AJ158" s="19"/>
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A159" s="82"/>
+      <c r="A159" s="89"/>
       <c r="B159" s="46"/>
       <c r="C159" s="44"/>
       <c r="D159" s="44" t="s">
@@ -10164,7 +10164,7 @@
       <c r="AJ159" s="19"/>
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A160" s="82"/>
+      <c r="A160" s="89"/>
       <c r="B160" s="46"/>
       <c r="C160" s="44"/>
       <c r="D160" s="44" t="s">
@@ -10208,7 +10208,7 @@
       <c r="AJ160" s="19"/>
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A161" s="82"/>
+      <c r="A161" s="89"/>
       <c r="B161" s="46"/>
       <c r="C161" s="44"/>
       <c r="D161" s="44" t="s">
@@ -10252,7 +10252,7 @@
       <c r="AJ161" s="19"/>
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A162" s="82"/>
+      <c r="A162" s="89"/>
       <c r="B162" s="46"/>
       <c r="C162" s="44"/>
       <c r="D162" s="44" t="s">
@@ -10298,7 +10298,7 @@
       <c r="AJ162" s="19"/>
     </row>
     <row r="163" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A163" s="82"/>
+      <c r="A163" s="89"/>
       <c r="B163" s="46"/>
       <c r="C163" s="44"/>
       <c r="D163" s="44" t="s">
@@ -10344,7 +10344,7 @@
       <c r="AJ163" s="19"/>
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A164" s="82"/>
+      <c r="A164" s="89"/>
       <c r="B164" s="46"/>
       <c r="C164" s="44"/>
       <c r="D164" s="44" t="s">
@@ -10390,7 +10390,7 @@
       <c r="AJ164" s="19"/>
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A165" s="82"/>
+      <c r="A165" s="89"/>
       <c r="B165" s="46"/>
       <c r="C165" s="44"/>
       <c r="D165" s="44"/>
@@ -10428,7 +10428,7 @@
       <c r="AJ165" s="19"/>
     </row>
     <row r="166" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A166" s="82"/>
+      <c r="A166" s="89"/>
       <c r="B166" s="46"/>
       <c r="C166" s="44"/>
       <c r="D166" s="44" t="s">
@@ -10470,7 +10470,7 @@
       <c r="AJ166" s="19"/>
     </row>
     <row r="167" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A167" s="83"/>
+      <c r="A167" s="90"/>
       <c r="B167" s="46"/>
       <c r="C167" s="44"/>
       <c r="D167" s="44"/>
@@ -10546,7 +10546,7 @@
       <c r="AJ168" s="19"/>
     </row>
     <row r="169" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A169" s="71" t="s">
+      <c r="A169" s="84" t="s">
         <v>243</v>
       </c>
       <c r="B169" s="46"/>
@@ -10594,7 +10594,7 @@
       <c r="AJ169" s="19"/>
     </row>
     <row r="170" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A170" s="71"/>
+      <c r="A170" s="84"/>
       <c r="B170" s="46"/>
       <c r="C170" s="44"/>
       <c r="D170" s="44" t="s">
@@ -10640,7 +10640,7 @@
       <c r="AJ170" s="19"/>
     </row>
     <row r="171" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A171" s="71"/>
+      <c r="A171" s="84"/>
       <c r="B171" s="46"/>
       <c r="C171" s="44"/>
       <c r="D171" s="44" t="s">
@@ -10686,7 +10686,7 @@
       <c r="AJ171" s="19"/>
     </row>
     <row r="172" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A172" s="71"/>
+      <c r="A172" s="84"/>
       <c r="B172" s="46"/>
       <c r="C172" s="44"/>
       <c r="D172" s="44" t="s">
@@ -10737,7 +10737,7 @@
       <c r="C173" s="40"/>
       <c r="D173" s="40"/>
       <c r="E173" s="39"/>
-      <c r="F173" s="96"/>
+      <c r="F173" s="75"/>
       <c r="G173" s="2"/>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -16780,13 +16780,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A67:A80"/>
     <mergeCell ref="F113:F114"/>
     <mergeCell ref="F106:F107"/>
     <mergeCell ref="A169:A172"/>
@@ -16802,6 +16795,13 @@
     <mergeCell ref="A82:A87"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A67:A80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -16829,25 +16829,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F1" s="65" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -16858,7 +16858,7 @@
         <v>74</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -16869,10 +16869,10 @@
         <v>76</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G3" s="65">
         <v>1</v>
@@ -16883,13 +16883,13 @@
         <v>58</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G4" s="65">
         <v>2</v>
@@ -16900,13 +16900,13 @@
         <v>62</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G5" s="65">
         <v>3</v>
@@ -16917,13 +16917,13 @@
         <v>60</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G6" s="65">
         <v>2</v>
@@ -16934,13 +16934,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G7" s="65">
         <v>1</v>
@@ -16951,10 +16951,10 @@
         <v>291</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F8" s="65" t="s">
         <v>189</v>
@@ -16968,13 +16968,13 @@
         <v>137</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G9" s="65">
         <v>1</v>
@@ -16985,13 +16985,13 @@
         <v>104</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G10" s="65">
         <v>1</v>
@@ -17002,10 +17002,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17013,13 +17013,13 @@
         <v>142</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G12" s="65">
         <v>1</v>
@@ -17030,13 +17030,13 @@
         <v>140</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G13" s="65">
         <v>1</v>
@@ -17047,13 +17047,13 @@
         <v>148</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G14" s="65">
         <v>1</v>
@@ -17064,10 +17064,10 @@
         <v>146</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -17075,10 +17075,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -17086,13 +17086,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F17" s="65" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G17" s="65">
         <v>1</v>
@@ -17103,13 +17103,13 @@
         <v>64</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F18" s="65" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G18" s="65">
         <v>2</v>
@@ -17117,13 +17117,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -17131,13 +17131,13 @@
         <v>240</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F20" s="65" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G20" s="65">
         <v>1</v>
@@ -17151,7 +17151,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -17162,7 +17162,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -17173,7 +17173,7 @@
         <v>36</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -17184,10 +17184,10 @@
         <v>38</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F24" s="65" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G24" s="65">
         <v>2</v>
@@ -17201,10 +17201,10 @@
         <v>28</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F25" s="65" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G25" s="65">
         <v>2</v>
@@ -17218,10 +17218,10 @@
         <v>30</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F26" s="65" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G26" s="65">
         <v>2</v>
@@ -17235,7 +17235,7 @@
         <v>338</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -17246,7 +17246,7 @@
         <v>339</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -17254,13 +17254,13 @@
         <v>133</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F29" s="65" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G29" s="65">
         <v>1</v>
@@ -17271,13 +17271,13 @@
         <v>131</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G30" s="65">
         <v>1</v>
@@ -17288,52 +17288,52 @@
         <v>263</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B32" s="65" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B33" s="65" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D33" s="65" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="67" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="67" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="67" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -17362,25 +17362,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F1" s="65" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -17388,13 +17388,13 @@
         <v>152</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C2" s="65">
         <v>1</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E2" s="65">
         <v>2</v>
@@ -17405,13 +17405,13 @@
         <v>165</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C3" s="65">
         <v>1</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E3" s="65">
         <v>2</v>
@@ -17422,13 +17422,13 @@
         <v>167</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C4" s="65">
         <v>1</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E4" s="65">
         <v>2</v>
@@ -17439,13 +17439,13 @@
         <v>111</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C5" s="65">
         <v>1</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E5" s="65">
         <v>2</v>
@@ -17456,13 +17456,13 @@
         <v>144</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C6" s="65">
         <v>1</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E6" s="65">
         <v>2</v>
@@ -17473,13 +17473,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C7" s="65">
         <v>1</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E7" s="65">
         <v>2</v>
@@ -17490,13 +17490,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C8" s="65">
         <v>1</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E8" s="65">
         <v>2</v>
@@ -17507,13 +17507,13 @@
         <v>150</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C9" s="65">
         <v>1</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E9" s="65">
         <v>2</v>
@@ -17524,13 +17524,13 @@
         <v>88</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C10" s="65">
         <v>1</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E10" s="65">
         <v>2</v>
@@ -17541,13 +17541,13 @@
         <v>269</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C11" s="65">
         <v>1</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E11" s="65">
         <v>2</v>
@@ -17561,7 +17561,7 @@
         <v>270</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17572,7 +17572,7 @@
         <v>272</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -17580,13 +17580,13 @@
         <v>251</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G14" s="65">
         <v>3</v>
@@ -17597,13 +17597,13 @@
         <v>255</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G15" s="65">
         <v>3</v>
@@ -17617,7 +17617,7 @@
         <v>80</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -17628,10 +17628,10 @@
         <v>82</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F17" s="65" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G17" s="65">
         <v>4</v>
@@ -17642,10 +17642,10 @@
         <v>72</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F18" s="65" t="s">
         <v>71</v>
@@ -17659,13 +17659,13 @@
         <v>68</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F19" s="65" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G19" s="65">
         <v>3</v>
@@ -17676,13 +17676,13 @@
         <v>56</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F20" s="65" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G20" s="65">
         <v>3</v>
@@ -17693,13 +17693,13 @@
         <v>54</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G21" s="65">
         <v>3</v>
@@ -17710,13 +17710,13 @@
         <v>256</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F22" s="65" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G22" s="65">
         <v>3</v>
@@ -17727,13 +17727,13 @@
         <v>170</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F23" s="65" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G23" s="65">
         <v>4</v>
@@ -17744,10 +17744,10 @@
         <v>158</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -17755,13 +17755,13 @@
         <v>161</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F25" s="65" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G25" s="65">
         <v>6</v>
@@ -17772,10 +17772,10 @@
         <v>277</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -17783,10 +17783,10 @@
         <v>129</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -17794,13 +17794,13 @@
         <v>121</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F28" s="65" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G28" s="65">
         <v>6</v>
@@ -17811,10 +17811,10 @@
         <v>154</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -17822,7 +17822,7 @@
         <v>190</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -17830,7 +17830,7 @@
         <v>193</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -17838,7 +17838,7 @@
         <v>195</v>
       </c>
       <c r="B32" s="65" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -17846,27 +17846,27 @@
         <v>200</v>
       </c>
       <c r="B33" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="67" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="67" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="66" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C38" s="66"/>
       <c r="D38" s="66"/>
@@ -17878,17 +17878,17 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="67" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="67" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="67" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -17917,25 +17917,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F1" s="65" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -17943,7 +17943,7 @@
         <v>275</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G2" s="65">
         <v>1</v>
@@ -17956,90 +17956,90 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -18047,10 +18047,10 @@
         <v>98</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -18058,10 +18058,10 @@
         <v>110</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -18069,10 +18069,10 @@
         <v>117</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -18080,10 +18080,10 @@
         <v>123</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -18091,10 +18091,10 @@
         <v>125</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -18102,10 +18102,10 @@
         <v>127</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -18113,10 +18113,10 @@
         <v>163</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -18124,10 +18124,10 @@
         <v>135</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -18135,54 +18135,54 @@
         <v>94</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="65" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -18190,10 +18190,10 @@
         <v>96</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -18201,10 +18201,10 @@
         <v>66</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -18212,10 +18212,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -18223,10 +18223,10 @@
         <v>92</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -18234,10 +18234,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -18245,10 +18245,10 @@
         <v>90</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -18256,10 +18256,10 @@
         <v>156</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -18267,20 +18267,20 @@
         <v>26</v>
       </c>
       <c r="B32" s="65" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="67" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="67" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -18309,25 +18309,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F1" s="65" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -18335,10 +18335,10 @@
         <v>85</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18346,10 +18346,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18357,10 +18357,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18368,21 +18368,21 @@
         <v>79</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -18390,10 +18390,10 @@
         <v>289</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -18401,10 +18401,10 @@
         <v>113</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -18412,10 +18412,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -18423,10 +18423,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -18434,10 +18434,10 @@
         <v>115</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -18445,172 +18445,172 @@
         <v>6</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="65" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="65" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="65" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="65" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="65" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="65" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="65" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="65" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B32" s="65" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="67" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/M2 Pin Mapping.xlsx
+++ b/M2 Pin Mapping.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'M2 Pin Mapping'!$B$1:$B$353</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'M2 Pin Mapping'!$A$1:$F$117</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'M2 Pin Mapping'!$A$1:$G$172</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="641">
   <si>
     <t>Feature</t>
   </si>
@@ -115,9 +115,6 @@
     <t>PC30</t>
   </si>
   <si>
-    <t>Card is inserted - LOW.</t>
-  </si>
-  <si>
     <t>MCDA2</t>
   </si>
   <si>
@@ -538,9 +535,6 @@
     <t>PB2</t>
   </si>
   <si>
-    <t>PinDescription Array Number</t>
-  </si>
-  <si>
     <t>PC1</t>
   </si>
   <si>
@@ -760,9 +754,6 @@
     <t>SCL0</t>
   </si>
   <si>
-    <t>GPIOConnector</t>
-  </si>
-  <si>
     <t>Test &amp; Programing Pins</t>
   </si>
   <si>
@@ -778,9 +769,6 @@
     <t>ADVREF</t>
   </si>
   <si>
-    <t>VoltageAnalogue</t>
-  </si>
-  <si>
     <t>Ground Analogue</t>
   </si>
   <si>
@@ -814,9 +802,6 @@
     <t>USART2RX</t>
   </si>
   <si>
-    <t>TP4 U2RX</t>
-  </si>
-  <si>
     <t>VDDCORE4</t>
   </si>
   <si>
@@ -826,9 +811,6 @@
     <t>PA29</t>
   </si>
   <si>
-    <t>SD Card</t>
-  </si>
-  <si>
     <t>XB_RSSI_PWM</t>
   </si>
   <si>
@@ -1087,9 +1069,6 @@
     <t>I-SENSE_DAC</t>
   </si>
   <si>
-    <t>3.3V USART3 Serial3 GPIO Connector</t>
-  </si>
-  <si>
     <t>TXD3</t>
   </si>
   <si>
@@ -1891,12 +1870,6 @@
     <t>GPIO Power Supply Enable</t>
   </si>
   <si>
-    <t>User Button R/H side</t>
-  </si>
-  <si>
-    <t>User Button L/H side</t>
-  </si>
-  <si>
     <t>Power Supply</t>
   </si>
   <si>
@@ -1910,13 +1883,183 @@
   </si>
   <si>
     <t>PS_BUCK / BUCK_DIS</t>
+  </si>
+  <si>
+    <t>Pin Description Array Number</t>
+  </si>
+  <si>
+    <r>
+      <t>PWML0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Beta Hardware Only)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PWML1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Beta Hardware Only)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PWML2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Beta Hardware Only)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PWML3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Beta Hardware Only)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PWML4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Beta Hardware Only)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PWML5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Beta Hardware Only)</t>
+    </r>
+  </si>
+  <si>
+    <t>Not connected by default</t>
+  </si>
+  <si>
+    <t>Card inserted = LOW</t>
+  </si>
+  <si>
+    <t>R/H Button Pressed = LOW</t>
+  </si>
+  <si>
+    <t>L/H Button Pressed = LOW</t>
+  </si>
+  <si>
+    <t>J5 Pin 1</t>
+  </si>
+  <si>
+    <t>J5 Pin 3</t>
+  </si>
+  <si>
+    <t>J5 Pin 4</t>
+  </si>
+  <si>
+    <t>J5 Pin 5</t>
+  </si>
+  <si>
+    <t>J5 Pin 9</t>
+  </si>
+  <si>
+    <t>J5 Pin 13</t>
+  </si>
+  <si>
+    <t>J5 Pin 17</t>
+  </si>
+  <si>
+    <t>J5 Pin 21</t>
+  </si>
+  <si>
+    <t>Optionally connected to SD Card</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">J5 Pin 7 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3.3V UART)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">J5 Pin 8 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3.3V UART)</t>
+    </r>
+  </si>
+  <si>
+    <t>J5 Pin 15</t>
+  </si>
+  <si>
+    <t>Voltage Analogue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1948,6 +2091,21 @@
       <color theme="1"/>
       <name val="Open Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2346,9 +2504,6 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2380,22 +2535,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2404,10 +2550,25 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2425,23 +2586,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2729,62 +2887,62 @@
   <dimension ref="A1:AJ352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A9"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:36" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="72" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="74" t="s">
-        <v>354</v>
-      </c>
-      <c r="F1" s="74" t="s">
+      <c r="E1" s="73" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="72" t="s">
-        <v>173</v>
+      <c r="G1" s="71" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="68">
         <v>14</v>
       </c>
-      <c r="C2" s="68" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71">
+      <c r="F2" s="69"/>
+      <c r="G2" s="70">
         <v>32</v>
       </c>
       <c r="H2" s="19"/>
@@ -2818,12 +2976,12 @@
       <c r="AJ2" s="19"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="37">
         <v>15</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>8</v>
@@ -2866,12 +3024,12 @@
       <c r="AJ3" s="19"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="37">
         <v>16</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>10</v>
@@ -2914,12 +3072,12 @@
       <c r="AJ4" s="19"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="37">
         <v>17</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>12</v>
@@ -2962,12 +3120,12 @@
       <c r="AJ5" s="19"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="37">
         <v>18</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>14</v>
@@ -3010,12 +3168,12 @@
       <c r="AJ6" s="19"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="37">
         <v>19</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>18</v>
@@ -3058,12 +3216,12 @@
       <c r="AJ7" s="19"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="37">
         <v>20</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>20</v>
@@ -3106,12 +3264,12 @@
       <c r="AJ8" s="19"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="37">
         <v>21</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>16</v>
@@ -3192,14 +3350,14 @@
       <c r="AJ10" s="20"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
-        <v>321</v>
+      <c r="A11" s="83" t="s">
+        <v>315</v>
       </c>
       <c r="B11" s="34">
         <v>22</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>22</v>
@@ -3208,7 +3366,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="G11" s="4">
         <v>138</v>
@@ -3244,12 +3402,12 @@
       <c r="AJ11" s="19"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="34">
         <v>23</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>24</v>
@@ -3257,8 +3415,8 @@
       <c r="E12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="64" t="s">
-        <v>620</v>
+      <c r="F12" s="76" t="s">
+        <v>627</v>
       </c>
       <c r="G12" s="4">
         <v>121</v>
@@ -3332,8 +3490,8 @@
       <c r="AJ13" s="20"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
-        <v>395</v>
+      <c r="A14" s="84" t="s">
+        <v>388</v>
       </c>
       <c r="B14" s="37">
         <v>36</v>
@@ -3348,7 +3506,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>27</v>
+        <v>625</v>
       </c>
       <c r="G14" s="4">
         <v>103</v>
@@ -3384,18 +3542,18 @@
       <c r="AJ14" s="19"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="37">
         <v>37</v>
       </c>
       <c r="C15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>35</v>
-      </c>
       <c r="E15" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="4">
@@ -3432,18 +3590,18 @@
       <c r="AJ15" s="19"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="37">
         <v>38</v>
       </c>
       <c r="C16" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>33</v>
-      </c>
       <c r="E16" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="4">
@@ -3480,18 +3638,18 @@
       <c r="AJ16" s="19"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="37">
         <v>39</v>
       </c>
       <c r="C17" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>37</v>
-      </c>
       <c r="E17" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="4">
@@ -3528,18 +3686,18 @@
       <c r="AJ17" s="19"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="37">
         <v>40</v>
       </c>
       <c r="C18" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>39</v>
-      </c>
       <c r="E18" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="4">
@@ -3576,18 +3734,18 @@
       <c r="AJ18" s="19"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="37">
         <v>41</v>
       </c>
       <c r="C19" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>29</v>
-      </c>
       <c r="E19" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="4">
@@ -3624,18 +3782,18 @@
       <c r="AJ19" s="19"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="37">
         <v>42</v>
       </c>
       <c r="C20" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>31</v>
-      </c>
       <c r="E20" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="4">
@@ -3710,8 +3868,8 @@
       <c r="AJ21" s="20"/>
     </row>
     <row r="22" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
-        <v>396</v>
+      <c r="A22" s="84" t="s">
+        <v>389</v>
       </c>
       <c r="B22" s="37">
         <f>B101</f>
@@ -3729,7 +3887,9 @@
         <f>E101</f>
         <v>SPI0_nCS1</v>
       </c>
-      <c r="F22" s="37"/>
+      <c r="F22" s="94" t="s">
+        <v>624</v>
+      </c>
       <c r="G22" s="63">
         <f t="shared" ref="G22" si="0">G101</f>
         <v>112</v>
@@ -3765,7 +3925,7 @@
       <c r="AJ22" s="20"/>
     </row>
     <row r="23" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="37">
         <f t="shared" ref="B23:E24" si="1">B99</f>
         <v>44</v>
@@ -3782,7 +3942,9 @@
         <f t="shared" si="1"/>
         <v>SPI0 MOSI</v>
       </c>
-      <c r="F23" s="37"/>
+      <c r="F23" s="94" t="s">
+        <v>624</v>
+      </c>
       <c r="G23" s="63">
         <f t="shared" ref="G23" si="2">G99</f>
         <v>109</v>
@@ -3818,7 +3980,7 @@
       <c r="AJ23" s="20"/>
     </row>
     <row r="24" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="37">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -3835,7 +3997,9 @@
         <f t="shared" si="1"/>
         <v>SPI0 CLK</v>
       </c>
-      <c r="F24" s="37"/>
+      <c r="F24" s="94" t="s">
+        <v>624</v>
+      </c>
       <c r="G24" s="63">
         <f t="shared" ref="G24" si="3">G100</f>
         <v>110</v>
@@ -3871,7 +4035,7 @@
       <c r="AJ24" s="20"/>
     </row>
     <row r="25" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="37">
         <f>B98</f>
         <v>43</v>
@@ -3888,7 +4052,9 @@
         <f>E98</f>
         <v>SPI0 MISO</v>
       </c>
-      <c r="F25" s="37"/>
+      <c r="F25" s="94" t="s">
+        <v>624</v>
+      </c>
       <c r="G25" s="63">
         <f t="shared" ref="G25" si="4">G98</f>
         <v>108</v>
@@ -3962,23 +4128,23 @@
       <c r="AJ26" s="20"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="79" t="s">
-        <v>40</v>
+      <c r="A27" s="80" t="s">
+        <v>39</v>
       </c>
       <c r="B27" s="34">
         <v>24</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G27" s="4">
         <v>60</v>
@@ -4019,16 +4185,16 @@
         <v>25</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G28" s="4">
         <v>63</v>
@@ -4069,16 +4235,16 @@
         <v>26</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G29" s="4">
         <v>65</v>
@@ -4119,16 +4285,16 @@
         <v>27</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G30" s="4">
         <v>67</v>
@@ -4169,16 +4335,16 @@
         <v>28</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G31" s="4">
         <v>131</v>
@@ -4219,16 +4385,16 @@
         <v>29</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G32" s="4">
         <v>101</v>
@@ -4269,16 +4435,16 @@
         <v>30</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>384</v>
+        <v>618</v>
       </c>
       <c r="G33" s="4">
         <v>59</v>
@@ -4319,16 +4485,16 @@
         <v>31</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>386</v>
+        <v>619</v>
       </c>
       <c r="G34" s="4">
         <v>116</v>
@@ -4369,16 +4535,16 @@
         <v>32</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>388</v>
+        <v>620</v>
       </c>
       <c r="G35" s="4">
         <v>64</v>
@@ -4419,16 +4585,16 @@
         <v>33</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>390</v>
+        <v>621</v>
       </c>
       <c r="G36" s="4">
         <v>66</v>
@@ -4469,16 +4635,16 @@
         <v>34</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>392</v>
+        <v>622</v>
       </c>
       <c r="G37" s="4">
         <v>132</v>
@@ -4514,21 +4680,21 @@
       <c r="AJ37" s="19"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="80"/>
+      <c r="A38" s="82"/>
       <c r="B38" s="34">
         <v>35</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>394</v>
+        <v>623</v>
       </c>
       <c r="G38" s="4">
         <v>133</v>
@@ -4602,22 +4768,24 @@
       <c r="AJ39" s="20"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A40" s="78" t="s">
-        <v>336</v>
+      <c r="A40" s="84" t="s">
+        <v>330</v>
       </c>
       <c r="B40" s="37">
         <v>86</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" s="35"/>
+        <v>52</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>628</v>
+      </c>
       <c r="G40" s="4">
         <v>90</v>
       </c>
@@ -4652,26 +4820,28 @@
       <c r="AJ40" s="19"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="37">
         <v>87</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="35"/>
+        <v>54</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>631</v>
+      </c>
       <c r="G41" s="4">
         <v>89</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
+      <c r="J41" s="2"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
@@ -4700,20 +4870,22 @@
       <c r="AJ41" s="19"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="76"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="37">
         <v>88</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="35"/>
+        <v>56</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>632</v>
+      </c>
       <c r="G42" s="4">
         <v>85</v>
       </c>
@@ -4748,20 +4920,22 @@
       <c r="AJ42" s="19"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="76"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="37">
         <v>89</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="35"/>
+        <v>58</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>633</v>
+      </c>
       <c r="G43" s="4">
         <v>83</v>
       </c>
@@ -4796,20 +4970,22 @@
       <c r="AJ43" s="19"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="76"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="37">
         <v>90</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F44" s="35"/>
+        <v>60</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>634</v>
+      </c>
       <c r="G44" s="4">
         <v>84</v>
       </c>
@@ -4844,20 +5020,22 @@
       <c r="AJ44" s="19"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
+      <c r="A45" s="86"/>
       <c r="B45" s="37">
         <v>91</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>635</v>
+      </c>
       <c r="G45" s="4">
         <v>78</v>
       </c>
@@ -4930,23 +5108,23 @@
       <c r="AJ46" s="19"/>
     </row>
     <row r="47" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="79" t="s">
-        <v>335</v>
+      <c r="A47" s="80" t="s">
+        <v>329</v>
       </c>
       <c r="B47" s="34">
         <v>75</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G47" s="4">
         <v>135</v>
@@ -4987,16 +5165,16 @@
         <v>93</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G48" s="4">
         <v>88</v>
@@ -5037,16 +5215,16 @@
         <v>76</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G49" s="4">
         <v>14</v>
@@ -5082,21 +5260,21 @@
       <c r="AJ49" s="19"/>
     </row>
     <row r="50" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="80"/>
+      <c r="A50" s="82"/>
       <c r="B50" s="34">
         <v>95</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G50" s="4">
         <v>77</v>
@@ -5170,20 +5348,20 @@
       <c r="AJ51" s="20"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A52" s="78" t="s">
-        <v>73</v>
+      <c r="A52" s="84" t="s">
+        <v>72</v>
       </c>
       <c r="B52" s="37">
         <v>69</v>
       </c>
       <c r="C52" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="36" t="s">
-        <v>77</v>
-      </c>
       <c r="E52" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="4">
@@ -5220,18 +5398,18 @@
       <c r="AJ52" s="19"/>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A53" s="76"/>
+      <c r="A53" s="85"/>
       <c r="B53" s="37">
         <v>70</v>
       </c>
       <c r="C53" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="36" t="s">
-        <v>75</v>
-      </c>
       <c r="E53" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F53" s="35"/>
       <c r="G53" s="4">
@@ -5268,18 +5446,18 @@
       <c r="AJ53" s="19"/>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A54" s="76"/>
+      <c r="A54" s="85"/>
       <c r="B54" s="37">
         <v>71</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="4">
@@ -5316,18 +5494,18 @@
       <c r="AJ54" s="19"/>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A55" s="76"/>
+      <c r="A55" s="85"/>
       <c r="B55" s="37">
         <v>72</v>
       </c>
       <c r="C55" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="36" t="s">
-        <v>83</v>
-      </c>
       <c r="E55" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F55" s="35"/>
       <c r="G55" s="4">
@@ -5364,18 +5542,18 @@
       <c r="AJ55" s="19"/>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A56" s="76"/>
+      <c r="A56" s="85"/>
       <c r="B56" s="37">
         <v>73</v>
       </c>
       <c r="C56" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="36" t="s">
-        <v>81</v>
-      </c>
       <c r="E56" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F56" s="35"/>
       <c r="G56" s="4">
@@ -5412,18 +5590,18 @@
       <c r="AJ56" s="19"/>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
+      <c r="A57" s="86"/>
       <c r="B57" s="37">
         <v>25</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F57" s="35"/>
       <c r="G57" s="4">
@@ -5498,20 +5676,20 @@
       <c r="AJ58" s="19"/>
     </row>
     <row r="59" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="79" t="s">
-        <v>621</v>
+      <c r="A59" s="80" t="s">
+        <v>612</v>
       </c>
       <c r="B59" s="34">
         <v>48</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="4">
@@ -5548,21 +5726,21 @@
       <c r="AJ59" s="19"/>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A60" s="80"/>
+      <c r="A60" s="82"/>
       <c r="B60" s="34">
         <v>49</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D60" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="32" t="s">
         <v>100</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="F60" s="32" t="s">
-        <v>101</v>
       </c>
       <c r="G60" s="4">
         <v>120</v>
@@ -5598,20 +5776,20 @@
       <c r="AJ60" s="19"/>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A61" s="79" t="s">
-        <v>86</v>
+      <c r="A61" s="80" t="s">
+        <v>85</v>
       </c>
       <c r="B61" s="34">
         <v>50</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F61" s="32"/>
       <c r="G61" s="4">
@@ -5653,13 +5831,13 @@
         <v>51</v>
       </c>
       <c r="C62" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="E62" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F62" s="32"/>
       <c r="G62" s="4">
@@ -5701,13 +5879,13 @@
         <v>52</v>
       </c>
       <c r="C63" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="33" t="s">
-        <v>92</v>
-      </c>
       <c r="E63" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="4">
@@ -5749,13 +5927,13 @@
         <v>53</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F64" s="32"/>
       <c r="G64" s="4">
@@ -5792,18 +5970,18 @@
       <c r="AJ64" s="19"/>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A65" s="80"/>
+      <c r="A65" s="82"/>
       <c r="B65" s="34">
         <v>54</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E65" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F65" s="32"/>
       <c r="G65" s="4">
@@ -5878,23 +6056,23 @@
       <c r="AJ66" s="19"/>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A67" s="79" t="s">
-        <v>102</v>
+      <c r="A67" s="80" t="s">
+        <v>101</v>
       </c>
       <c r="B67" s="34">
         <v>0</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G67" s="4">
         <v>27</v>
@@ -5935,16 +6113,16 @@
         <v>1</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G68" s="4">
         <v>2</v>
@@ -5985,13 +6163,13 @@
         <v>4</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F69" s="32"/>
       <c r="G69" s="4">
@@ -6033,13 +6211,13 @@
         <v>7</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F70" s="32"/>
       <c r="G70" s="4">
@@ -6081,13 +6259,13 @@
         <v>11</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F71" s="32"/>
       <c r="G71" s="4">
@@ -6129,13 +6307,13 @@
         <v>12</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F72" s="32"/>
       <c r="G72" s="4">
@@ -6177,13 +6355,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F73" s="32"/>
       <c r="G73" s="4">
@@ -6225,13 +6403,13 @@
         <v>3</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="4">
@@ -6273,13 +6451,13 @@
         <v>5</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F75" s="32"/>
       <c r="G75" s="4">
@@ -6321,13 +6499,13 @@
         <v>6</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="4">
@@ -6369,13 +6547,13 @@
         <v>9</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F77" s="32"/>
       <c r="G77" s="4">
@@ -6417,13 +6595,13 @@
         <v>2</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="4">
@@ -6465,13 +6643,13 @@
         <v>10</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F79" s="32"/>
       <c r="G79" s="4">
@@ -6508,18 +6686,18 @@
       <c r="AJ79" s="19"/>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A80" s="80"/>
+      <c r="A80" s="82"/>
       <c r="B80" s="34">
         <v>13</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F80" s="32"/>
       <c r="G80" s="4">
@@ -6594,23 +6772,23 @@
       <c r="AJ81" s="19"/>
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A82" s="93" t="s">
-        <v>138</v>
+      <c r="A82" s="92" t="s">
+        <v>137</v>
       </c>
       <c r="B82" s="37">
         <v>55</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D82" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F82" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G82" s="4">
         <v>4</v>
@@ -6646,18 +6824,18 @@
       <c r="AJ82" s="19"/>
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A83" s="93"/>
+      <c r="A83" s="92"/>
       <c r="B83" s="37">
         <v>56</v>
       </c>
       <c r="C83" s="36" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D83" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F83" s="35"/>
       <c r="G83" s="4">
@@ -6694,18 +6872,18 @@
       <c r="AJ83" s="19"/>
     </row>
     <row r="84" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="93"/>
+      <c r="A84" s="92"/>
       <c r="B84" s="37">
         <v>57</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D84" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="4">
@@ -6742,21 +6920,21 @@
       <c r="AJ84" s="19"/>
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A85" s="93"/>
+      <c r="A85" s="92"/>
       <c r="B85" s="37">
         <v>58</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D85" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F85" s="35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G85" s="4">
         <v>6</v>
@@ -6792,18 +6970,18 @@
       <c r="AJ85" s="19"/>
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A86" s="93"/>
+      <c r="A86" s="92"/>
       <c r="B86" s="37">
         <v>59</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D86" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F86" s="35"/>
       <c r="G86" s="4">
@@ -6840,18 +7018,18 @@
       <c r="AJ86" s="19"/>
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A87" s="93"/>
+      <c r="A87" s="92"/>
       <c r="B87" s="37">
         <v>60</v>
       </c>
       <c r="C87" s="36" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D87" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E87" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F87" s="35"/>
       <c r="G87" s="4">
@@ -6926,20 +7104,20 @@
       <c r="AJ88" s="19"/>
     </row>
     <row r="89" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="79" t="s">
-        <v>334</v>
+      <c r="A89" s="80" t="s">
+        <v>328</v>
       </c>
       <c r="B89" s="34">
         <v>65</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E89" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F89" s="32"/>
       <c r="G89" s="4">
@@ -6981,13 +7159,13 @@
         <v>64</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F90" s="32"/>
       <c r="G90" s="4">
@@ -7029,13 +7207,13 @@
         <v>68</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F91" s="32"/>
       <c r="G91" s="4">
@@ -7077,13 +7255,13 @@
         <v>66</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E92" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F92" s="32"/>
       <c r="G92" s="4">
@@ -7125,13 +7303,13 @@
         <v>63</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E93" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F93" s="32"/>
       <c r="G93" s="4">
@@ -7173,13 +7351,13 @@
         <v>67</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E94" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="4">
@@ -7221,13 +7399,13 @@
         <v>61</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F95" s="32"/>
       <c r="G95" s="4">
@@ -7264,18 +7442,18 @@
       <c r="AJ95" s="19"/>
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A96" s="80"/>
+      <c r="A96" s="82"/>
       <c r="B96" s="34">
         <v>62</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E96" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F96" s="32"/>
       <c r="G96" s="4">
@@ -7350,23 +7528,23 @@
       <c r="AJ97" s="19"/>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A98" s="78" t="s">
-        <v>337</v>
+      <c r="A98" s="84" t="s">
+        <v>331</v>
       </c>
       <c r="B98" s="47">
         <v>43</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D98" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="F98" s="35" t="s">
-        <v>264</v>
+        <v>106</v>
+      </c>
+      <c r="F98" s="95" t="s">
+        <v>636</v>
       </c>
       <c r="G98" s="4">
         <v>108</v>
@@ -7402,21 +7580,21 @@
       <c r="AJ98" s="19"/>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A99" s="76"/>
+      <c r="A99" s="85"/>
       <c r="B99" s="47">
         <v>44</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D99" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E99" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="F99" s="35" t="s">
-        <v>264</v>
+        <v>117</v>
+      </c>
+      <c r="F99" s="95" t="s">
+        <v>636</v>
       </c>
       <c r="G99" s="4">
         <v>109</v>
@@ -7452,21 +7630,21 @@
       <c r="AJ99" s="19"/>
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A100" s="76"/>
+      <c r="A100" s="85"/>
       <c r="B100" s="47">
         <v>45</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D100" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E100" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F100" s="35" t="s">
-        <v>264</v>
+        <v>131</v>
+      </c>
+      <c r="F100" s="95" t="s">
+        <v>636</v>
       </c>
       <c r="G100" s="4">
         <v>110</v>
@@ -7502,21 +7680,21 @@
       <c r="AJ100" s="19"/>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A101" s="76"/>
+      <c r="A101" s="85"/>
       <c r="B101" s="50">
         <v>46</v>
       </c>
       <c r="C101" s="49" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D101" s="49" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E101" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="F101" s="48" t="s">
-        <v>264</v>
+        <v>257</v>
+      </c>
+      <c r="F101" s="95" t="s">
+        <v>636</v>
       </c>
       <c r="G101" s="4">
         <v>112</v>
@@ -7552,18 +7730,18 @@
       <c r="AJ101" s="19"/>
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A102" s="77"/>
+      <c r="A102" s="86"/>
       <c r="B102" s="47">
         <v>47</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D102" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F102" s="35"/>
       <c r="G102" s="4">
@@ -7637,24 +7815,24 @@
       <c r="AI103" s="19"/>
       <c r="AJ103" s="19"/>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A104" s="94" t="s">
-        <v>178</v>
+    <row r="104" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="93" t="s">
+        <v>176</v>
       </c>
       <c r="B104" s="54">
         <v>77</v>
       </c>
       <c r="C104" s="53" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D104" s="53" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E104" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="F104" s="91" t="s">
-        <v>351</v>
+        <v>175</v>
+      </c>
+      <c r="F104" s="75" t="s">
+        <v>637</v>
       </c>
       <c r="G104" s="4">
         <v>17</v>
@@ -7690,20 +7868,22 @@
       <c r="AJ104" s="19"/>
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A105" s="95"/>
+      <c r="A105" s="81"/>
       <c r="B105" s="55">
         <v>78</v>
       </c>
       <c r="C105" s="56" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D105" s="56" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E105" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="F105" s="92"/>
+        <v>174</v>
+      </c>
+      <c r="F105" s="96" t="s">
+        <v>638</v>
+      </c>
       <c r="G105" s="4">
         <v>18</v>
       </c>
@@ -7738,21 +7918,21 @@
       <c r="AJ105" s="19"/>
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A106" s="95"/>
+      <c r="A106" s="81"/>
       <c r="B106" s="55">
         <v>79</v>
       </c>
       <c r="C106" s="56" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D106" s="56" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E106" s="57" t="s">
-        <v>355</v>
-      </c>
-      <c r="F106" s="82" t="s">
-        <v>242</v>
+        <v>348</v>
+      </c>
+      <c r="F106" s="57" t="s">
+        <v>630</v>
       </c>
       <c r="G106" s="4">
         <v>9</v>
@@ -7788,20 +7968,22 @@
       <c r="AJ106" s="19"/>
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A107" s="95"/>
+      <c r="A107" s="81"/>
       <c r="B107" s="55">
         <v>80</v>
       </c>
       <c r="C107" s="56" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D107" s="56" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E107" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="F107" s="83"/>
+        <v>239</v>
+      </c>
+      <c r="F107" s="57" t="s">
+        <v>629</v>
+      </c>
       <c r="G107" s="4">
         <v>70</v>
       </c>
@@ -7836,21 +8018,21 @@
       <c r="AJ107" s="19"/>
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A108" s="96"/>
+      <c r="A108" s="82"/>
       <c r="B108" s="55">
         <v>83</v>
       </c>
       <c r="C108" s="56" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D108" s="56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E108" s="57" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F108" s="57" t="s">
-        <v>260</v>
+        <v>639</v>
       </c>
       <c r="G108" s="4">
         <v>92</v>
@@ -7924,23 +8106,23 @@
       <c r="AJ109" s="19"/>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A110" s="86" t="s">
-        <v>360</v>
+      <c r="A110" s="87" t="s">
+        <v>353</v>
       </c>
       <c r="B110" s="50">
         <v>92</v>
       </c>
       <c r="C110" s="49" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D110" s="49" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E110" s="48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F110" s="48" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G110" s="4">
         <v>82</v>
@@ -7976,24 +8158,24 @@
       <c r="AJ110" s="19"/>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A111" s="87"/>
+      <c r="A111" s="88"/>
       <c r="B111" s="50">
         <v>94</v>
       </c>
       <c r="C111" s="49" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="D111" s="49" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E111" s="48" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F111" s="48" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -8064,23 +8246,23 @@
       <c r="AJ112" s="19"/>
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A113" s="79" t="s">
-        <v>617</v>
+      <c r="A113" s="80" t="s">
+        <v>610</v>
       </c>
       <c r="B113" s="55">
         <v>81</v>
       </c>
       <c r="C113" s="56" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D113" s="56" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E113" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="F113" s="82" t="s">
-        <v>253</v>
+        <v>248</v>
+      </c>
+      <c r="F113" s="78" t="s">
+        <v>249</v>
       </c>
       <c r="G113" s="4">
         <v>86</v>
@@ -8116,20 +8298,20 @@
       <c r="AJ113" s="19"/>
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A114" s="80"/>
+      <c r="A114" s="82"/>
       <c r="B114" s="55">
         <v>82</v>
       </c>
       <c r="C114" s="56" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D114" s="56" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E114" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="F114" s="83"/>
+        <v>250</v>
+      </c>
+      <c r="F114" s="79"/>
       <c r="G114" s="4">
         <v>87</v>
       </c>
@@ -8201,24 +8383,24 @@
       <c r="AI115" s="19"/>
       <c r="AJ115" s="19"/>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A116" s="51" t="s">
-        <v>357</v>
+    <row r="116" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="77" t="s">
+        <v>350</v>
       </c>
       <c r="B116" s="50">
         <v>84</v>
       </c>
       <c r="C116" s="49" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D116" s="49" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E116" s="48" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F116" s="48" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G116" s="4">
         <v>91</v>
@@ -8255,22 +8437,22 @@
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" s="51" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B117" s="50">
         <v>85</v>
       </c>
       <c r="C117" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="D117" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E117" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="F117" s="48" t="s">
         <v>361</v>
-      </c>
-      <c r="D117" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="E117" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="F117" s="48" t="s">
-        <v>368</v>
       </c>
       <c r="G117" s="4">
         <v>55</v>
@@ -8348,10 +8530,10 @@
       <c r="B119" s="46"/>
       <c r="C119" s="44"/>
       <c r="D119" s="44" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F119" s="43"/>
       <c r="G119" s="4">
@@ -8392,10 +8574,10 @@
       <c r="B120" s="46"/>
       <c r="C120" s="44"/>
       <c r="D120" s="44" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F120" s="43"/>
       <c r="G120" s="4">
@@ -8436,10 +8618,10 @@
       <c r="B121" s="46"/>
       <c r="C121" s="44"/>
       <c r="D121" s="44" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F121" s="43"/>
       <c r="G121" s="4">
@@ -8480,10 +8662,10 @@
       <c r="B122" s="46"/>
       <c r="C122" s="44"/>
       <c r="D122" s="44" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F122" s="43"/>
       <c r="G122" s="4">
@@ -8558,16 +8740,16 @@
       <c r="AJ123" s="19"/>
     </row>
     <row r="124" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="88" t="s">
-        <v>244</v>
+      <c r="A124" s="89" t="s">
+        <v>241</v>
       </c>
       <c r="B124" s="46"/>
       <c r="C124" s="44"/>
       <c r="D124" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F124" s="43"/>
       <c r="G124" s="4">
@@ -8604,14 +8786,14 @@
       <c r="AJ124" s="19"/>
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A125" s="89"/>
+      <c r="A125" s="90"/>
       <c r="B125" s="46"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F125" s="43"/>
       <c r="G125" s="4">
@@ -8648,14 +8830,14 @@
       <c r="AJ125" s="19"/>
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A126" s="89"/>
+      <c r="A126" s="90"/>
       <c r="B126" s="46"/>
       <c r="C126" s="44"/>
       <c r="D126" s="44" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F126" s="43"/>
       <c r="G126" s="4">
@@ -8692,14 +8874,14 @@
       <c r="AJ126" s="19"/>
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A127" s="89"/>
+      <c r="A127" s="90"/>
       <c r="B127" s="46"/>
       <c r="C127" s="44"/>
       <c r="D127" s="44" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F127" s="43"/>
       <c r="G127" s="4">
@@ -8736,14 +8918,14 @@
       <c r="AJ127" s="19"/>
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A128" s="89"/>
+      <c r="A128" s="90"/>
       <c r="B128" s="46"/>
       <c r="C128" s="44"/>
       <c r="D128" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F128" s="43"/>
       <c r="G128" s="4">
@@ -8780,14 +8962,14 @@
       <c r="AJ128" s="19"/>
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A129" s="89"/>
+      <c r="A129" s="90"/>
       <c r="B129" s="46"/>
       <c r="C129" s="44"/>
       <c r="D129" s="44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F129" s="43"/>
       <c r="G129" s="4">
@@ -8824,14 +9006,14 @@
       <c r="AJ129" s="19"/>
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A130" s="89"/>
+      <c r="A130" s="90"/>
       <c r="B130" s="46"/>
       <c r="C130" s="44"/>
       <c r="D130" s="44" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F130" s="43"/>
       <c r="G130" s="4">
@@ -8868,14 +9050,14 @@
       <c r="AJ130" s="19"/>
     </row>
     <row r="131" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A131" s="89"/>
+      <c r="A131" s="90"/>
       <c r="B131" s="46"/>
       <c r="C131" s="44"/>
       <c r="D131" s="44" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F131" s="43"/>
       <c r="G131" s="4">
@@ -8912,14 +9094,14 @@
       <c r="AJ131" s="19"/>
     </row>
     <row r="132" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A132" s="89"/>
+      <c r="A132" s="90"/>
       <c r="B132" s="46"/>
       <c r="C132" s="44"/>
       <c r="D132" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F132" s="43"/>
       <c r="G132" s="4">
@@ -8956,14 +9138,14 @@
       <c r="AJ132" s="19"/>
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A133" s="89"/>
+      <c r="A133" s="90"/>
       <c r="B133" s="46"/>
       <c r="C133" s="44"/>
       <c r="D133" s="44" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F133" s="43"/>
       <c r="G133" s="4">
@@ -9000,14 +9182,14 @@
       <c r="AJ133" s="19"/>
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A134" s="89"/>
+      <c r="A134" s="90"/>
       <c r="B134" s="46"/>
       <c r="C134" s="44"/>
       <c r="D134" s="44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F134" s="43"/>
       <c r="G134" s="4">
@@ -9044,14 +9226,14 @@
       <c r="AJ134" s="19"/>
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A135" s="89"/>
+      <c r="A135" s="90"/>
       <c r="B135" s="46"/>
       <c r="C135" s="44"/>
       <c r="D135" s="44" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F135" s="43"/>
       <c r="G135" s="4">
@@ -9088,14 +9270,14 @@
       <c r="AJ135" s="19"/>
     </row>
     <row r="136" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A136" s="89"/>
+      <c r="A136" s="90"/>
       <c r="B136" s="46"/>
       <c r="C136" s="44"/>
       <c r="D136" s="44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F136" s="43"/>
       <c r="G136" s="4">
@@ -9132,14 +9314,14 @@
       <c r="AJ136" s="19"/>
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A137" s="89"/>
+      <c r="A137" s="90"/>
       <c r="B137" s="46"/>
       <c r="C137" s="44"/>
       <c r="D137" s="44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F137" s="43"/>
       <c r="G137" s="4">
@@ -9176,14 +9358,14 @@
       <c r="AJ137" s="19"/>
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A138" s="89"/>
+      <c r="A138" s="90"/>
       <c r="B138" s="46"/>
       <c r="C138" s="44"/>
       <c r="D138" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F138" s="43"/>
       <c r="G138" s="4">
@@ -9220,17 +9402,17 @@
       <c r="AJ138" s="19"/>
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A139" s="89"/>
+      <c r="A139" s="90"/>
       <c r="B139" s="46"/>
       <c r="C139" s="44"/>
       <c r="D139" s="44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F139" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G139" s="4">
         <v>35</v>
@@ -9266,17 +9448,17 @@
       <c r="AJ139" s="19"/>
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A140" s="89"/>
+      <c r="A140" s="90"/>
       <c r="B140" s="46"/>
       <c r="C140" s="44"/>
       <c r="D140" s="44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F140" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G140" s="4">
         <v>36</v>
@@ -9312,17 +9494,17 @@
       <c r="AJ140" s="19"/>
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A141" s="89"/>
+      <c r="A141" s="90"/>
       <c r="B141" s="46"/>
       <c r="C141" s="44"/>
       <c r="D141" s="44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F141" s="43" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G141" s="4">
         <v>37</v>
@@ -9358,17 +9540,17 @@
       <c r="AJ141" s="19"/>
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A142" s="89"/>
+      <c r="A142" s="90"/>
       <c r="B142" s="46"/>
       <c r="C142" s="44"/>
       <c r="D142" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F142" s="43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G142" s="4">
         <v>38</v>
@@ -9404,17 +9586,17 @@
       <c r="AJ142" s="19"/>
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A143" s="89"/>
+      <c r="A143" s="90"/>
       <c r="B143" s="46"/>
       <c r="C143" s="44"/>
       <c r="D143" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="E143" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F143" s="43" t="s">
         <v>213</v>
-      </c>
-      <c r="E143" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="F143" s="43" t="s">
-        <v>215</v>
       </c>
       <c r="G143" s="4">
         <v>39</v>
@@ -9450,14 +9632,14 @@
       <c r="AJ143" s="19"/>
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A144" s="89"/>
+      <c r="A144" s="90"/>
       <c r="B144" s="46"/>
       <c r="C144" s="44"/>
       <c r="D144" s="44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F144" s="43"/>
       <c r="G144" s="4">
@@ -9494,14 +9676,14 @@
       <c r="AJ144" s="19"/>
     </row>
     <row r="145" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A145" s="89"/>
+      <c r="A145" s="90"/>
       <c r="B145" s="46"/>
       <c r="C145" s="44"/>
       <c r="D145" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F145" s="43"/>
       <c r="G145" s="4">
@@ -9538,14 +9720,14 @@
       <c r="AJ145" s="19"/>
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A146" s="89"/>
+      <c r="A146" s="90"/>
       <c r="B146" s="46"/>
       <c r="C146" s="44"/>
       <c r="D146" s="44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F146" s="43"/>
       <c r="G146" s="4">
@@ -9582,14 +9764,14 @@
       <c r="AJ146" s="19"/>
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A147" s="89"/>
+      <c r="A147" s="90"/>
       <c r="B147" s="46"/>
       <c r="C147" s="44"/>
       <c r="D147" s="44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F147" s="43"/>
       <c r="G147" s="4">
@@ -9626,17 +9808,17 @@
       <c r="AJ147" s="19"/>
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A148" s="89"/>
+      <c r="A148" s="90"/>
       <c r="B148" s="46"/>
       <c r="C148" s="44"/>
       <c r="D148" s="44" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F148" s="43" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G148" s="4">
         <v>44</v>
@@ -9672,14 +9854,14 @@
       <c r="AJ148" s="19"/>
     </row>
     <row r="149" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A149" s="89"/>
+      <c r="A149" s="90"/>
       <c r="B149" s="46"/>
       <c r="C149" s="44"/>
       <c r="D149" s="44" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F149" s="43"/>
       <c r="G149" s="4">
@@ -9716,17 +9898,17 @@
       <c r="AJ149" s="19"/>
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A150" s="89"/>
+      <c r="A150" s="90"/>
       <c r="B150" s="46"/>
       <c r="C150" s="44"/>
       <c r="D150" s="44" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F150" s="43" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G150" s="4">
         <v>46</v>
@@ -9762,17 +9944,17 @@
       <c r="AJ150" s="19"/>
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A151" s="89"/>
+      <c r="A151" s="90"/>
       <c r="B151" s="46"/>
       <c r="C151" s="44"/>
       <c r="D151" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F151" s="43" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G151" s="4">
         <v>47</v>
@@ -9808,17 +9990,17 @@
       <c r="AJ151" s="19"/>
     </row>
     <row r="152" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A152" s="89"/>
+      <c r="A152" s="90"/>
       <c r="B152" s="46"/>
       <c r="C152" s="44"/>
       <c r="D152" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="E152" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="F152" s="43" t="s">
         <v>224</v>
-      </c>
-      <c r="E152" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="F152" s="43" t="s">
-        <v>226</v>
       </c>
       <c r="G152" s="4">
         <v>48</v>
@@ -9854,17 +10036,17 @@
       <c r="AJ152" s="19"/>
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A153" s="89"/>
+      <c r="A153" s="90"/>
       <c r="B153" s="46"/>
       <c r="C153" s="44"/>
       <c r="D153" s="44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F153" s="43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G153" s="4">
         <v>49</v>
@@ -9900,15 +10082,15 @@
       <c r="AJ153" s="19"/>
     </row>
     <row r="154" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A154" s="89"/>
+      <c r="A154" s="90"/>
       <c r="B154" s="46"/>
       <c r="C154" s="44"/>
       <c r="D154" s="44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E154" s="43"/>
       <c r="F154" s="43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G154" s="4">
         <v>50</v>
@@ -9944,15 +10126,15 @@
       <c r="AJ154" s="19"/>
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A155" s="89"/>
+      <c r="A155" s="90"/>
       <c r="B155" s="46"/>
       <c r="C155" s="44"/>
       <c r="D155" s="44" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E155" s="43"/>
       <c r="F155" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G155" s="4">
         <v>51</v>
@@ -9988,15 +10170,15 @@
       <c r="AJ155" s="19"/>
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A156" s="89"/>
+      <c r="A156" s="90"/>
       <c r="B156" s="46"/>
       <c r="C156" s="44"/>
       <c r="D156" s="44" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E156" s="43"/>
       <c r="F156" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G156" s="4">
         <v>52</v>
@@ -10032,15 +10214,15 @@
       <c r="AJ156" s="19"/>
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A157" s="89"/>
+      <c r="A157" s="90"/>
       <c r="B157" s="46"/>
       <c r="C157" s="44"/>
       <c r="D157" s="44" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E157" s="43"/>
       <c r="F157" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G157" s="4">
         <v>53</v>
@@ -10076,15 +10258,15 @@
       <c r="AJ157" s="19"/>
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A158" s="89"/>
+      <c r="A158" s="90"/>
       <c r="B158" s="46"/>
       <c r="C158" s="44"/>
       <c r="D158" s="44" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E158" s="43"/>
       <c r="F158" s="43" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G158" s="4">
         <v>54</v>
@@ -10120,14 +10302,14 @@
       <c r="AJ158" s="19"/>
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A159" s="89"/>
+      <c r="A159" s="90"/>
       <c r="B159" s="46"/>
       <c r="C159" s="44"/>
       <c r="D159" s="44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F159" s="43"/>
       <c r="G159" s="4">
@@ -10164,14 +10346,14 @@
       <c r="AJ159" s="19"/>
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A160" s="89"/>
+      <c r="A160" s="90"/>
       <c r="B160" s="46"/>
       <c r="C160" s="44"/>
       <c r="D160" s="44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F160" s="43"/>
       <c r="G160" s="4">
@@ -10208,14 +10390,14 @@
       <c r="AJ160" s="19"/>
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A161" s="89"/>
+      <c r="A161" s="90"/>
       <c r="B161" s="46"/>
       <c r="C161" s="44"/>
       <c r="D161" s="44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F161" s="43"/>
       <c r="G161" s="4">
@@ -10252,17 +10434,17 @@
       <c r="AJ161" s="19"/>
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A162" s="89"/>
+      <c r="A162" s="90"/>
       <c r="B162" s="46"/>
       <c r="C162" s="44"/>
       <c r="D162" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F162" s="43" t="s">
-        <v>248</v>
+        <v>640</v>
       </c>
       <c r="G162" s="4">
         <v>73</v>
@@ -10298,17 +10480,17 @@
       <c r="AJ162" s="19"/>
     </row>
     <row r="163" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A163" s="89"/>
+      <c r="A163" s="90"/>
       <c r="B163" s="46"/>
       <c r="C163" s="44"/>
       <c r="D163" s="44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F163" s="43" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G163" s="4">
         <v>74</v>
@@ -10344,17 +10526,17 @@
       <c r="AJ163" s="19"/>
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A164" s="89"/>
+      <c r="A164" s="90"/>
       <c r="B164" s="46"/>
       <c r="C164" s="44"/>
       <c r="D164" s="44" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F164" s="43" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G164" s="4">
         <v>75</v>
@@ -10390,7 +10572,7 @@
       <c r="AJ164" s="19"/>
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A165" s="89"/>
+      <c r="A165" s="90"/>
       <c r="B165" s="46"/>
       <c r="C165" s="44"/>
       <c r="D165" s="44"/>
@@ -10428,11 +10610,11 @@
       <c r="AJ165" s="19"/>
     </row>
     <row r="166" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A166" s="89"/>
+      <c r="A166" s="90"/>
       <c r="B166" s="46"/>
       <c r="C166" s="44"/>
       <c r="D166" s="44" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E166" s="43"/>
       <c r="F166" s="43"/>
@@ -10470,7 +10652,7 @@
       <c r="AJ166" s="19"/>
     </row>
     <row r="167" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A167" s="90"/>
+      <c r="A167" s="91"/>
       <c r="B167" s="46"/>
       <c r="C167" s="44"/>
       <c r="D167" s="44"/>
@@ -10545,20 +10727,20 @@
       <c r="AI168" s="19"/>
       <c r="AJ168" s="19"/>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A169" s="84" t="s">
-        <v>243</v>
+    <row r="169" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="89" t="s">
+        <v>240</v>
       </c>
       <c r="B169" s="46"/>
       <c r="C169" s="44"/>
       <c r="D169" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F169" s="43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G169" s="4">
         <v>28</v>
@@ -10594,17 +10776,17 @@
       <c r="AJ169" s="19"/>
     </row>
     <row r="170" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A170" s="84"/>
+      <c r="A170" s="90"/>
       <c r="B170" s="46"/>
       <c r="C170" s="44"/>
       <c r="D170" s="44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F170" s="43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G170" s="4">
         <v>29</v>
@@ -10640,17 +10822,17 @@
       <c r="AJ170" s="19"/>
     </row>
     <row r="171" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A171" s="84"/>
+      <c r="A171" s="90"/>
       <c r="B171" s="46"/>
       <c r="C171" s="44"/>
       <c r="D171" s="44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E171" s="43" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F171" s="43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G171" s="4">
         <v>30</v>
@@ -10686,17 +10868,17 @@
       <c r="AJ171" s="19"/>
     </row>
     <row r="172" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A172" s="84"/>
+      <c r="A172" s="91"/>
       <c r="B172" s="46"/>
       <c r="C172" s="44"/>
       <c r="D172" s="44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E172" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="F172" s="43" t="s">
         <v>199</v>
-      </c>
-      <c r="F172" s="43" t="s">
-        <v>201</v>
       </c>
       <c r="G172" s="4">
         <v>31</v>
@@ -10737,7 +10919,7 @@
       <c r="C173" s="40"/>
       <c r="D173" s="40"/>
       <c r="E173" s="39"/>
-      <c r="F173" s="75"/>
+      <c r="F173" s="74"/>
       <c r="G173" s="2"/>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -16779,9 +16961,15 @@
       <c r="AJ352" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="20">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A67:A80"/>
     <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F106:F107"/>
     <mergeCell ref="A169:A172"/>
     <mergeCell ref="A27:A38"/>
     <mergeCell ref="A11:A12"/>
@@ -16789,22 +16977,14 @@
     <mergeCell ref="A110:A111"/>
     <mergeCell ref="A113:A114"/>
     <mergeCell ref="A124:A167"/>
-    <mergeCell ref="F104:F105"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A52:A57"/>
     <mergeCell ref="A82:A87"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A67:A80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16818,522 +16998,522 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="65" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="65" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="65" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="65" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="65" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="65" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="64" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="64" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="64" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>460</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>461</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>490</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>462</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>490</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>463</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>490</v>
+      <c r="A1" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="65" t="s">
+      <c r="D3" s="64" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="65" t="s">
+      <c r="F3" s="64" t="s">
+        <v>436</v>
+      </c>
+      <c r="G3" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>437</v>
+      </c>
+      <c r="G4" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>435</v>
+      </c>
+      <c r="G5" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>438</v>
+      </c>
+      <c r="G6" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="D7" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="G7" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="G9" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="G10" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="G12" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>407</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="F13" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G13" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>398</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>399</v>
-      </c>
-      <c r="F4" s="65" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" s="64" t="s">
         <v>444</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G14" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="G17" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="64">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>400</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>401</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>442</v>
-      </c>
-      <c r="G5" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>402</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>403</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>445</v>
-      </c>
-      <c r="G6" s="65">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>447</v>
+      </c>
+      <c r="G20" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="G24" s="64">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>404</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>405</v>
-      </c>
-      <c r="F7" s="65" t="s">
-        <v>446</v>
-      </c>
-      <c r="G7" s="65">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>422</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="G25" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G26" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>426</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="F29" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="G29" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>406</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>407</v>
-      </c>
-      <c r="F8" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>408</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>409</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>447</v>
-      </c>
-      <c r="G9" s="65">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G30" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>410</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>372</v>
-      </c>
-      <c r="F10" s="65" t="s">
-        <v>448</v>
-      </c>
-      <c r="G10" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>411</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>412</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>413</v>
-      </c>
-      <c r="F12" s="65" t="s">
-        <v>449</v>
-      </c>
-      <c r="G12" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="65" t="s">
-        <v>414</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>415</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>450</v>
-      </c>
-      <c r="G13" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>416</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>386</v>
-      </c>
-      <c r="F14" s="65" t="s">
-        <v>451</v>
-      </c>
-      <c r="G14" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>417</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>418</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>420</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="F17" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="G17" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="65" t="s">
-        <v>422</v>
-      </c>
-      <c r="D18" s="65" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>429</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="D32" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="F18" s="65" t="s">
-        <v>453</v>
-      </c>
-      <c r="G18" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>424</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
-        <v>240</v>
-      </c>
-      <c r="B20" s="65" t="s">
-        <v>426</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>427</v>
-      </c>
-      <c r="F20" s="65" t="s">
-        <v>454</v>
-      </c>
-      <c r="G20" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="65" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="65" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
+        <v>433</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="D33" s="64" t="s">
         <v>428</v>
       </c>
-      <c r="F24" s="65" t="s">
-        <v>455</v>
-      </c>
-      <c r="G24" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>429</v>
-      </c>
-      <c r="F25" s="65" t="s">
-        <v>456</v>
-      </c>
-      <c r="G25" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="65" t="s">
-        <v>430</v>
-      </c>
-      <c r="F26" s="65" t="s">
-        <v>457</v>
-      </c>
-      <c r="G26" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="65" t="s">
-        <v>338</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="D28" s="65" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>433</v>
-      </c>
-      <c r="D29" s="65" t="s">
-        <v>427</v>
-      </c>
-      <c r="F29" s="65" t="s">
-        <v>458</v>
-      </c>
-      <c r="G29" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>434</v>
-      </c>
-      <c r="D30" s="65" t="s">
-        <v>435</v>
-      </c>
-      <c r="F30" s="65" t="s">
-        <v>459</v>
-      </c>
-      <c r="G30" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
-        <v>263</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>436</v>
-      </c>
-      <c r="D31" s="65" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
-        <v>438</v>
-      </c>
-      <c r="B32" s="65" t="s">
-        <v>439</v>
-      </c>
-      <c r="D32" s="65" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
-        <v>440</v>
-      </c>
-      <c r="B33" s="65" t="s">
-        <v>441</v>
-      </c>
-      <c r="D33" s="65" t="s">
-        <v>435</v>
-      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="65" t="s">
-        <v>489</v>
+      <c r="A35" s="64" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="67" t="s">
-        <v>521</v>
+      <c r="B36" s="66" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="67" t="s">
-        <v>522</v>
+      <c r="B37" s="66" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="67" t="s">
-        <v>523</v>
+      <c r="B38" s="66" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -17351,544 +17531,544 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="65" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="65" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="65" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="65" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="65" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="65" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="64" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="64" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="64" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="C2" s="64">
+        <v>1</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>496</v>
+      </c>
+      <c r="E2" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" s="64">
+        <v>1</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>497</v>
+      </c>
+      <c r="E3" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4" s="64">
+        <v>1</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>498</v>
+      </c>
+      <c r="E4" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>489</v>
+      </c>
+      <c r="C5" s="64">
+        <v>1</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C6" s="64">
+        <v>1</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>500</v>
+      </c>
+      <c r="E6" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="C7" s="64">
+        <v>1</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>501</v>
+      </c>
+      <c r="E7" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>492</v>
+      </c>
+      <c r="C8" s="64">
+        <v>1</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="E8" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="C9" s="64">
+        <v>1</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="C10" s="64">
+        <v>1</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>502</v>
+      </c>
+      <c r="E10" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>495</v>
+      </c>
+      <c r="C11" s="64">
+        <v>1</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>503</v>
+      </c>
+      <c r="E11" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>504</v>
+      </c>
+      <c r="G14" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>505</v>
+      </c>
+      <c r="G15" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>506</v>
+      </c>
+      <c r="G17" s="64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>459</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="D19" s="64" t="s">
+        <v>379</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>507</v>
+      </c>
+      <c r="G19" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="C1" s="65" t="s">
-        <v>490</v>
-      </c>
-      <c r="D1" s="65" t="s">
+      <c r="D20" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>508</v>
+      </c>
+      <c r="G20" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="E1" s="65" t="s">
-        <v>490</v>
-      </c>
-      <c r="F1" s="65" t="s">
+      <c r="D21" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="F21" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="G21" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="G1" s="65" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>493</v>
-      </c>
-      <c r="C2" s="65">
-        <v>1</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>494</v>
-      </c>
-      <c r="C3" s="65">
-        <v>1</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>504</v>
-      </c>
-      <c r="E3" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>495</v>
-      </c>
-      <c r="C4" s="65">
-        <v>1</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>505</v>
-      </c>
-      <c r="E4" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>496</v>
-      </c>
-      <c r="C5" s="65">
-        <v>1</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>506</v>
-      </c>
-      <c r="E5" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>497</v>
-      </c>
-      <c r="C6" s="65">
-        <v>1</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>507</v>
-      </c>
-      <c r="E6" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>498</v>
-      </c>
-      <c r="C7" s="65">
-        <v>1</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>508</v>
-      </c>
-      <c r="E7" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>499</v>
-      </c>
-      <c r="C8" s="65">
-        <v>1</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>392</v>
-      </c>
-      <c r="E8" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>500</v>
-      </c>
-      <c r="C9" s="65">
-        <v>1</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>394</v>
-      </c>
-      <c r="E9" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>501</v>
-      </c>
-      <c r="C10" s="65">
-        <v>1</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>509</v>
-      </c>
-      <c r="E10" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="C11" s="65">
-        <v>1</v>
-      </c>
-      <c r="D11" s="65" t="s">
+      <c r="D22" s="64" t="s">
+        <v>429</v>
+      </c>
+      <c r="F22" s="64" t="s">
         <v>510</v>
       </c>
-      <c r="E11" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="G22" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="F23" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="G23" s="64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>465</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="G25" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="B12" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="B13" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
-        <v>251</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>464</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>372</v>
-      </c>
-      <c r="F14" s="65" t="s">
-        <v>511</v>
-      </c>
-      <c r="G14" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
-        <v>255</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>465</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>374</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>512</v>
-      </c>
-      <c r="G15" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>378</v>
-      </c>
-      <c r="F17" s="65" t="s">
+      <c r="B26" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>469</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>472</v>
+      </c>
+      <c r="F28" s="64" t="s">
         <v>513</v>
       </c>
-      <c r="G17" s="65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="65" t="s">
-        <v>466</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>384</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>467</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>386</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>514</v>
-      </c>
-      <c r="G19" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="65" t="s">
-        <v>468</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>388</v>
-      </c>
-      <c r="F20" s="65" t="s">
-        <v>515</v>
-      </c>
-      <c r="G20" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>469</v>
-      </c>
-      <c r="D21" s="65" t="s">
-        <v>390</v>
-      </c>
-      <c r="F21" s="65" t="s">
-        <v>516</v>
-      </c>
-      <c r="G21" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
-        <v>256</v>
-      </c>
-      <c r="B22" s="65" t="s">
-        <v>470</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>436</v>
-      </c>
-      <c r="F22" s="65" t="s">
+      <c r="G28" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>473</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="64" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="66" t="s">
         <v>517</v>
       </c>
-      <c r="G22" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>471</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>439</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>518</v>
-      </c>
-      <c r="G23" s="65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>472</v>
-      </c>
-      <c r="D24" s="65" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="65" t="s">
-        <v>473</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>441</v>
-      </c>
-      <c r="F25" s="65" t="s">
-        <v>519</v>
-      </c>
-      <c r="G25" s="65">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>474</v>
-      </c>
-      <c r="D26" s="65" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="65" t="s">
-        <v>476</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="65" t="s">
-        <v>478</v>
-      </c>
-      <c r="D28" s="65" t="s">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="66" t="s">
         <v>479</v>
       </c>
-      <c r="F28" s="65" t="s">
-        <v>520</v>
-      </c>
-      <c r="G28" s="65">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" s="65" t="s">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="65" t="s">
         <v>480</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="66" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="B32" s="65" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="66" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="66" t="s">
         <v>484</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="B33" s="65" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="65" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="67" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="67" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="66" t="s">
-        <v>487</v>
-      </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="67" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="67" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="67" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -17906,381 +18086,381 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="65" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="65" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="65" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="65" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="65" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="65" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="64" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="64" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="64" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>460</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>461</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>490</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>462</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>490</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>463</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>490</v>
+      <c r="A1" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>275</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>570</v>
-      </c>
-      <c r="G2" s="65">
+      <c r="A2" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="G2" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>169</v>
+      <c r="A3" s="64" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>518</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>520</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>522</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>523</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>524</v>
+      </c>
+      <c r="D10" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="B4" s="65" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="B11" s="64" t="s">
         <v>525</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D11" s="64" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>526</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>528</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>530</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>532</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>534</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>536</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>538</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>540</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>542</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>544</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>545</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>526</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="B23" s="64" t="s">
+        <v>546</v>
+      </c>
+      <c r="D23" s="64" t="s">
         <v>385</v>
       </c>
-      <c r="B6" s="65" t="s">
-        <v>527</v>
-      </c>
-      <c r="D6" s="65" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>373</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>528</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="B24" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="D24" s="64" t="s">
         <v>387</v>
       </c>
-      <c r="B8" s="65" t="s">
-        <v>529</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>375</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>530</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>389</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>531</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>377</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>532</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>533</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="65" t="s">
-        <v>535</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>537</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>539</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>541</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>543</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="65" t="s">
-        <v>545</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>547</v>
-      </c>
-      <c r="D19" s="65" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="64" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="65" t="s">
+      <c r="D25" s="64" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="64" t="s">
         <v>549</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D26" s="64" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="64" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
-        <v>381</v>
-      </c>
-      <c r="B21" s="65" t="s">
+      <c r="D27" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="D21" s="65" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
-        <v>379</v>
-      </c>
-      <c r="B22" s="65" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="D22" s="65" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
-        <v>391</v>
-      </c>
-      <c r="B23" s="65" t="s">
+      <c r="D28" s="64" t="s">
         <v>553</v>
       </c>
-      <c r="D23" s="65" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
-        <v>393</v>
-      </c>
-      <c r="B24" s="65" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="64" t="s">
         <v>554</v>
       </c>
-      <c r="D24" s="65" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="65" t="s">
+      <c r="D29" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="D25" s="65" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="65" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="D26" s="65" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="65" t="s">
+      <c r="D30" s="64" t="s">
         <v>557</v>
       </c>
-      <c r="D27" s="65" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="64" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="65" t="s">
+      <c r="D31" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="D28" s="65" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="64" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="65" t="s">
+      <c r="D32" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="D29" s="65" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="66" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="66" t="s">
         <v>562</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>563</v>
-      </c>
-      <c r="D30" s="65" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>565</v>
-      </c>
-      <c r="D31" s="65" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="65" t="s">
-        <v>567</v>
-      </c>
-      <c r="D32" s="65" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="67" t="s">
-        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -18298,319 +18478,319 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="65" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="65" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="65" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="65" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="65" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="65" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="64" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="64" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="64" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>460</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>461</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>490</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>462</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>490</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>463</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>490</v>
+      <c r="A1" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>566</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>568</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>570</v>
+      </c>
+      <c r="D5" s="64" t="s">
         <v>571</v>
       </c>
-      <c r="D2" s="65" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="B6" s="64" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="65" t="s">
+      <c r="D6" s="64" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="64" t="s">
         <v>573</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D7" s="64" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="64" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="D8" s="64" t="s">
         <v>575</v>
       </c>
-      <c r="D4" s="65" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="64" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="65" t="s">
+      <c r="D9" s="64" t="s">
         <v>577</v>
       </c>
-      <c r="D5" s="65" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="64" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>369</v>
-      </c>
-      <c r="B6" s="65" t="s">
+      <c r="D10" s="64" t="s">
         <v>579</v>
       </c>
-      <c r="D6" s="65" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>289</v>
-      </c>
-      <c r="B7" s="65" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="64" t="s">
         <v>580</v>
       </c>
-      <c r="D7" s="65" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="65" t="s">
+      <c r="D11" s="64" t="s">
         <v>581</v>
       </c>
-      <c r="D8" s="65" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="64" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="65" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
         <v>583</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="B13" s="64" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="65" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
         <v>585</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="B14" s="64" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="65" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
         <v>587</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="B15" s="64" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="65" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="B16" s="64" t="s">
         <v>590</v>
       </c>
-      <c r="B13" s="65" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="B17" s="64" t="s">
         <v>592</v>
       </c>
-      <c r="B14" s="65" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="B18" s="64" t="s">
         <v>594</v>
       </c>
-      <c r="B15" s="65" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="B19" s="64" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B20" s="64" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="B21" s="64" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
         <v>598</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B22" s="64" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+      <c r="B23" s="64" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
         <v>600</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B24" s="64" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="B25" s="64" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="B19" s="65" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="B26" s="64" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
         <v>603</v>
       </c>
-      <c r="B20" s="65" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+      <c r="B27" s="64" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
         <v>604</v>
       </c>
-      <c r="B21" s="65" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
+      <c r="B28" s="64" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
         <v>605</v>
       </c>
-      <c r="B22" s="65" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
+      <c r="B29" s="64" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
         <v>606</v>
       </c>
-      <c r="B23" s="65" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+      <c r="B30" s="64" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
         <v>607</v>
       </c>
-      <c r="B24" s="65" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
+      <c r="B31" s="64" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
         <v>608</v>
       </c>
-      <c r="B25" s="65" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
-        <v>609</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
-        <v>610</v>
-      </c>
-      <c r="B27" s="65" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
-        <v>611</v>
-      </c>
-      <c r="B28" s="65" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
-        <v>612</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
-        <v>613</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
-        <v>614</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
-        <v>615</v>
-      </c>
-      <c r="B32" s="65" t="s">
-        <v>431</v>
+      <c r="B32" s="64" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
-        <v>489</v>
+      <c r="A34" s="66" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
